--- a/datasets/bank_asset_percentage.xlsx
+++ b/datasets/bank_asset_percentage.xlsx
@@ -1,66 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Bank of America</t>
-  </si>
-  <si>
-    <t>Chase</t>
-  </si>
-  <si>
-    <t>Citibank</t>
-  </si>
-  <si>
-    <t>Wells Fargo</t>
-  </si>
-  <si>
-    <t>Other Banks</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -75,36 +49,94 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -392,1674 +424,1692 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Chase</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Citibank</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Wells Fargo</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Other Banks</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
         <v>37894</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>0.09370000000000001</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>0.09569999999999999</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>0.0832</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>0.0337</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>0.6936</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2">
+    <row r="3">
+      <c r="A3" s="2" t="n">
         <v>37986</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>0.0912</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>0.09279999999999999</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>0.0859</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>0.037</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>0.6931</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2">
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>38077</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>0.0989</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>0.0929</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>0.0868</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>0.0498</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>0.6716</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="2">
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>38168</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>0.0979</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>0.0906</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>0.0898</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>0.0505</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>0.6713</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="2">
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>38260</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>0.0999</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>0.0893</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>0.08790000000000001</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>0.049</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>0.6739000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="2">
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>38352</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>0.102</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>0.1279</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>0.09180000000000001</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>0.0484</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="n">
         <v>0.6299</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="2">
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>38442</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>0.1083</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>0.127</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>0.0885</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>0.0475</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="n">
         <v>0.6287</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="2">
+    <row r="9">
+      <c r="A9" s="2" t="n">
         <v>38533</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>0.133</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>0.1235</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>0.0895</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>0.0462</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="n">
         <v>0.6079</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="2">
+    <row r="10">
+      <c r="A10" s="2" t="n">
         <v>38625</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="n">
         <v>0.1313</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>0.1252</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>0.08749999999999999</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>0.0472</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="n">
         <v>0.6088</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="2">
+    <row r="11">
+      <c r="A11" s="2" t="n">
         <v>38717</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="n">
         <v>0.1323</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>0.124</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="n">
         <v>0.0864</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>0.0493</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="n">
         <v>0.6081</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="2">
+    <row r="12">
+      <c r="A12" s="2" t="n">
         <v>38807</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="n">
         <v>0.1304</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="n">
         <v>0.129</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="n">
         <v>0.08840000000000001</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="n">
         <v>0.0491</v>
       </c>
-      <c r="F12">
+      <c r="F12" t="n">
         <v>0.6031</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="2">
+    <row r="13">
+      <c r="A13" s="2" t="n">
         <v>38898</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="n">
         <v>0.1328</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="n">
         <v>0.131</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="n">
         <v>0.089</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="n">
         <v>0.0476</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="n">
         <v>0.5997</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="2">
+    <row r="14">
+      <c r="A14" s="2" t="n">
         <v>38990</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="n">
         <v>0.1334</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="n">
         <v>0.1321</v>
       </c>
-      <c r="D14">
+      <c r="D14" t="n">
         <v>0.0919</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="n">
         <v>0.0451</v>
       </c>
-      <c r="F14">
+      <c r="F14" t="n">
         <v>0.5974</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="2">
+    <row r="15">
+      <c r="A15" s="2" t="n">
         <v>39082</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="n">
         <v>0.1303</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="n">
         <v>0.1284</v>
       </c>
-      <c r="D15">
+      <c r="D15" t="n">
         <v>0.111</v>
       </c>
-      <c r="E15">
+      <c r="E15" t="n">
         <v>0.0434</v>
       </c>
-      <c r="F15">
+      <c r="F15" t="n">
         <v>0.5869</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="2">
+    <row r="16">
+      <c r="A16" s="2" t="n">
         <v>39172</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="n">
         <v>0.1306</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="n">
         <v>0.1327</v>
       </c>
-      <c r="D16">
+      <c r="D16" t="n">
         <v>0.1168</v>
       </c>
-      <c r="E16">
+      <c r="E16" t="n">
         <v>0.043</v>
       </c>
-      <c r="F16">
+      <c r="F16" t="n">
         <v>0.5769</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="2">
+    <row r="17">
+      <c r="A17" s="2" t="n">
         <v>39263</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="n">
         <v>0.1319</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="n">
         <v>0.1319</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="n">
         <v>0.1193</v>
       </c>
-      <c r="E17">
+      <c r="E17" t="n">
         <v>0.0451</v>
       </c>
-      <c r="F17">
+      <c r="F17" t="n">
         <v>0.5718</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="2">
+    <row r="18">
+      <c r="A18" s="2" t="n">
         <v>39355</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="n">
         <v>0.131</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="n">
         <v>0.1263</v>
       </c>
-      <c r="D18">
+      <c r="D18" t="n">
         <v>0.1252</v>
       </c>
-      <c r="E18">
+      <c r="E18" t="n">
         <v>0.0452</v>
       </c>
-      <c r="F18">
+      <c r="F18" t="n">
         <v>0.5722</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="2">
+    <row r="19">
+      <c r="A19" s="2" t="n">
         <v>39447</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="n">
         <v>0.1285</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="n">
         <v>0.1291</v>
       </c>
-      <c r="D19">
+      <c r="D19" t="n">
         <v>0.1225</v>
       </c>
-      <c r="E19">
+      <c r="E19" t="n">
         <v>0.0458</v>
       </c>
-      <c r="F19">
+      <c r="F19" t="n">
         <v>0.5742</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="2">
+    <row r="20">
+      <c r="A20" s="2" t="n">
         <v>39538</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="n">
         <v>0.1287</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="n">
         <v>0.1336</v>
       </c>
-      <c r="D20">
+      <c r="D20" t="n">
         <v>0.1227</v>
       </c>
-      <c r="E20">
+      <c r="E20" t="n">
         <v>0.0462</v>
       </c>
-      <c r="F20">
+      <c r="F20" t="n">
         <v>0.5688</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="2">
+    <row r="21">
+      <c r="A21" s="2" t="n">
         <v>39629</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="n">
         <v>0.1269</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="n">
         <v>0.1318</v>
       </c>
-      <c r="D21">
+      <c r="D21" t="n">
         <v>0.1174</v>
       </c>
-      <c r="E21">
+      <c r="E21" t="n">
         <v>0.0481</v>
       </c>
-      <c r="F21">
+      <c r="F21" t="n">
         <v>0.5758</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="2">
+    <row r="22">
+      <c r="A22" s="2" t="n">
         <v>39721</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="n">
         <v>0.1222</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="n">
         <v>0.159</v>
       </c>
-      <c r="D22">
+      <c r="D22" t="n">
         <v>0.1085</v>
       </c>
-      <c r="E22">
+      <c r="E22" t="n">
         <v>0.0463</v>
       </c>
-      <c r="F22">
+      <c r="F22" t="n">
         <v>0.5639999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="2">
+    <row r="23">
+      <c r="A23" s="2" t="n">
         <v>39813</v>
       </c>
-      <c r="B23">
+      <c r="B23" t="n">
         <v>0.1288</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="n">
         <v>0.1528</v>
       </c>
-      <c r="D23">
+      <c r="D23" t="n">
         <v>0.1074</v>
       </c>
-      <c r="E23">
+      <c r="E23" t="n">
         <v>0.0472</v>
       </c>
-      <c r="F23">
+      <c r="F23" t="n">
         <v>0.5639</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="2">
+    <row r="24">
+      <c r="A24" s="2" t="n">
         <v>39903</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="n">
         <v>0.129</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="n">
         <v>0.1518</v>
       </c>
-      <c r="D24">
+      <c r="D24" t="n">
         <v>0.1028</v>
       </c>
-      <c r="E24">
+      <c r="E24" t="n">
         <v>0.0497</v>
       </c>
-      <c r="F24">
+      <c r="F24" t="n">
         <v>0.5668</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="2">
+    <row r="25">
+      <c r="A25" s="2" t="n">
         <v>39994</v>
       </c>
-      <c r="B25">
+      <c r="B25" t="n">
         <v>0.1318</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="n">
         <v>0.1512</v>
       </c>
-      <c r="D25">
+      <c r="D25" t="n">
         <v>0.1059</v>
       </c>
-      <c r="E25">
+      <c r="E25" t="n">
         <v>0.049</v>
       </c>
-      <c r="F25">
+      <c r="F25" t="n">
         <v>0.5620000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="2">
+    <row r="26">
+      <c r="A26" s="2" t="n">
         <v>40086</v>
       </c>
-      <c r="B26">
+      <c r="B26" t="n">
         <v>0.1321</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="n">
         <v>0.1511</v>
       </c>
-      <c r="D26">
+      <c r="D26" t="n">
         <v>0.1074</v>
       </c>
-      <c r="E26">
+      <c r="E26" t="n">
         <v>0.0496</v>
       </c>
-      <c r="F26">
+      <c r="F26" t="n">
         <v>0.5598</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="2">
+    <row r="27">
+      <c r="A27" s="2" t="n">
         <v>40178</v>
       </c>
-      <c r="B27">
+      <c r="B27" t="n">
         <v>0.1328</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="n">
         <v>0.1475</v>
       </c>
-      <c r="D27">
+      <c r="D27" t="n">
         <v>0.1053</v>
       </c>
-      <c r="E27">
+      <c r="E27" t="n">
         <v>0.0552</v>
       </c>
-      <c r="F27">
+      <c r="F27" t="n">
         <v>0.5593</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="2">
+    <row r="28">
+      <c r="A28" s="2" t="n">
         <v>40268</v>
       </c>
-      <c r="B28">
+      <c r="B28" t="n">
         <v>0.1326</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="n">
         <v>0.1484</v>
       </c>
-      <c r="D28">
+      <c r="D28" t="n">
         <v>0.1038</v>
       </c>
-      <c r="E28">
+      <c r="E28" t="n">
         <v>0.0945</v>
       </c>
-      <c r="F28">
+      <c r="F28" t="n">
         <v>0.5207000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="2">
+    <row r="29">
+      <c r="A29" s="2" t="n">
         <v>40359</v>
       </c>
-      <c r="B29">
+      <c r="B29" t="n">
         <v>0.136</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="n">
         <v>0.1404</v>
       </c>
-      <c r="D29">
+      <c r="D29" t="n">
         <v>0.1036</v>
       </c>
-      <c r="E29">
+      <c r="E29" t="n">
         <v>0.0961</v>
       </c>
-      <c r="F29">
+      <c r="F29" t="n">
         <v>0.5239</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="2">
+    <row r="30">
+      <c r="A30" s="2" t="n">
         <v>40451</v>
       </c>
-      <c r="B30">
+      <c r="B30" t="n">
         <v>0.1313</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="n">
         <v>0.1449</v>
       </c>
-      <c r="D30">
+      <c r="D30" t="n">
         <v>0.1066</v>
       </c>
-      <c r="E30">
+      <c r="E30" t="n">
         <v>0.0944</v>
       </c>
-      <c r="F30">
+      <c r="F30" t="n">
         <v>0.5228</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="2">
+    <row r="31">
+      <c r="A31" s="2" t="n">
         <v>40543</v>
       </c>
-      <c r="B31">
+      <c r="B31" t="n">
         <v>0.1314</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="n">
         <v>0.1446</v>
       </c>
-      <c r="D31">
+      <c r="D31" t="n">
         <v>0.1023</v>
       </c>
-      <c r="E31">
+      <c r="E31" t="n">
         <v>0.0977</v>
       </c>
-      <c r="F31">
+      <c r="F31" t="n">
         <v>0.5239</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="2">
+    <row r="32">
+      <c r="A32" s="2" t="n">
         <v>40633</v>
       </c>
-      <c r="B32">
+      <c r="B32" t="n">
         <v>0.1275</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="n">
         <v>0.1514</v>
       </c>
-      <c r="D32">
+      <c r="D32" t="n">
         <v>0.102</v>
       </c>
-      <c r="E32">
+      <c r="E32" t="n">
         <v>0.096</v>
       </c>
-      <c r="F32">
+      <c r="F32" t="n">
         <v>0.5229</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="2">
+    <row r="33">
+      <c r="A33" s="2" t="n">
         <v>40724</v>
       </c>
-      <c r="B33">
+      <c r="B33" t="n">
         <v>0.1254</v>
       </c>
-      <c r="C33">
+      <c r="C33" t="n">
         <v>0.1545</v>
       </c>
-      <c r="D33">
+      <c r="D33" t="n">
         <v>0.1049</v>
       </c>
-      <c r="E33">
+      <c r="E33" t="n">
         <v>0.0953</v>
       </c>
-      <c r="F33">
+      <c r="F33" t="n">
         <v>0.5199</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="2">
+    <row r="34">
+      <c r="A34" s="2" t="n">
         <v>40816</v>
       </c>
-      <c r="B34">
+      <c r="B34" t="n">
         <v>0.1244</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="n">
         <v>0.155</v>
       </c>
-      <c r="D34">
+      <c r="D34" t="n">
         <v>0.1104</v>
       </c>
-      <c r="E34">
+      <c r="E34" t="n">
         <v>0.0969</v>
       </c>
-      <c r="F34">
+      <c r="F34" t="n">
         <v>0.5133</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="2">
+    <row r="35">
+      <c r="A35" s="2" t="n">
         <v>40908</v>
       </c>
-      <c r="B35">
+      <c r="B35" t="n">
         <v>0.1224</v>
       </c>
-      <c r="C35">
+      <c r="C35" t="n">
         <v>0.1527</v>
       </c>
-      <c r="D35">
+      <c r="D35" t="n">
         <v>0.1086</v>
       </c>
-      <c r="E35">
+      <c r="E35" t="n">
         <v>0.0979</v>
       </c>
-      <c r="F35">
+      <c r="F35" t="n">
         <v>0.5183</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="2">
+    <row r="36">
+      <c r="A36" s="2" t="n">
         <v>40999</v>
       </c>
-      <c r="B36">
+      <c r="B36" t="n">
         <v>0.1206</v>
       </c>
-      <c r="C36">
+      <c r="C36" t="n">
         <v>0.1535</v>
       </c>
-      <c r="D36">
+      <c r="D36" t="n">
         <v>0.1093</v>
       </c>
-      <c r="E36">
+      <c r="E36" t="n">
         <v>0.0984</v>
       </c>
-      <c r="F36">
+      <c r="F36" t="n">
         <v>0.5182</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="2">
+    <row r="37">
+      <c r="A37" s="2" t="n">
         <v>41090</v>
       </c>
-      <c r="B37">
+      <c r="B37" t="n">
         <v>0.1193</v>
       </c>
-      <c r="C37">
+      <c r="C37" t="n">
         <v>0.1497</v>
       </c>
-      <c r="D37">
+      <c r="D37" t="n">
         <v>0.1113</v>
       </c>
-      <c r="E37">
+      <c r="E37" t="n">
         <v>0.0974</v>
       </c>
-      <c r="F37">
+      <c r="F37" t="n">
         <v>0.5223</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="2">
+    <row r="38">
+      <c r="A38" s="2" t="n">
         <v>41182</v>
       </c>
-      <c r="B38">
+      <c r="B38" t="n">
         <v>0.1178</v>
       </c>
-      <c r="C38">
+      <c r="C38" t="n">
         <v>0.1504</v>
       </c>
-      <c r="D38">
+      <c r="D38" t="n">
         <v>0.111</v>
       </c>
-      <c r="E38">
+      <c r="E38" t="n">
         <v>0.09909999999999999</v>
       </c>
-      <c r="F38">
+      <c r="F38" t="n">
         <v>0.5217000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="2">
+    <row r="39">
+      <c r="A39" s="2" t="n">
         <v>41274</v>
       </c>
-      <c r="B39">
+      <c r="B39" t="n">
         <v>0.1168</v>
       </c>
-      <c r="C39">
+      <c r="C39" t="n">
         <v>0.1503</v>
       </c>
-      <c r="D39">
+      <c r="D39" t="n">
         <v>0.1041</v>
       </c>
-      <c r="E39">
+      <c r="E39" t="n">
         <v>0.1004</v>
       </c>
-      <c r="F39">
+      <c r="F39" t="n">
         <v>0.5283</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="2">
+    <row r="40">
+      <c r="A40" s="2" t="n">
         <v>41364</v>
       </c>
-      <c r="B40">
+      <c r="B40" t="n">
         <v>0.1158</v>
       </c>
-      <c r="C40">
+      <c r="C40" t="n">
         <v>0.1547</v>
       </c>
-      <c r="D40">
+      <c r="D40" t="n">
         <v>0.1037</v>
       </c>
-      <c r="E40">
+      <c r="E40" t="n">
         <v>0.101</v>
       </c>
-      <c r="F40">
+      <c r="F40" t="n">
         <v>0.5249</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="2">
+    <row r="41">
+      <c r="A41" s="2" t="n">
         <v>41455</v>
       </c>
-      <c r="B41">
+      <c r="B41" t="n">
         <v>0.1136</v>
       </c>
-      <c r="C41">
+      <c r="C41" t="n">
         <v>0.1548</v>
       </c>
-      <c r="D41">
+      <c r="D41" t="n">
         <v>0.1048</v>
       </c>
-      <c r="E41">
+      <c r="E41" t="n">
         <v>0.1021</v>
       </c>
-      <c r="F41">
+      <c r="F41" t="n">
         <v>0.5247000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="2">
+    <row r="42">
+      <c r="A42" s="2" t="n">
         <v>41547</v>
       </c>
-      <c r="B42">
+      <c r="B42" t="n">
         <v>0.1126</v>
       </c>
-      <c r="C42">
+      <c r="C42" t="n">
         <v>0.1557</v>
       </c>
-      <c r="D42">
+      <c r="D42" t="n">
         <v>0.1052</v>
       </c>
-      <c r="E42">
+      <c r="E42" t="n">
         <v>0.1039</v>
       </c>
-      <c r="F42">
+      <c r="F42" t="n">
         <v>0.5225</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="2">
+    <row r="43">
+      <c r="A43" s="2" t="n">
         <v>41639</v>
       </c>
-      <c r="B43">
+      <c r="B43" t="n">
         <v>0.1108</v>
       </c>
-      <c r="C43">
+      <c r="C43" t="n">
         <v>0.1504</v>
       </c>
-      <c r="D43">
+      <c r="D43" t="n">
         <v>0.1041</v>
       </c>
-      <c r="E43">
+      <c r="E43" t="n">
         <v>0.1062</v>
       </c>
-      <c r="F43">
+      <c r="F43" t="n">
         <v>0.5284</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="2">
+    <row r="44">
+      <c r="A44" s="2" t="n">
         <v>41729</v>
       </c>
-      <c r="B44">
+      <c r="B44" t="n">
         <v>0.111</v>
       </c>
-      <c r="C44">
+      <c r="C44" t="n">
         <v>0.1501</v>
       </c>
-      <c r="D44">
+      <c r="D44" t="n">
         <v>0.1037</v>
       </c>
-      <c r="E44">
+      <c r="E44" t="n">
         <v>0.1057</v>
       </c>
-      <c r="F44">
+      <c r="F44" t="n">
         <v>0.5294</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="2">
+    <row r="45">
+      <c r="A45" s="2" t="n">
         <v>41820</v>
       </c>
-      <c r="B45">
+      <c r="B45" t="n">
         <v>0.1086</v>
       </c>
-      <c r="C45">
+      <c r="C45" t="n">
         <v>0.1495</v>
       </c>
-      <c r="D45">
+      <c r="D45" t="n">
         <v>0.1027</v>
       </c>
-      <c r="E45">
+      <c r="E45" t="n">
         <v>0.1073</v>
       </c>
-      <c r="F45">
+      <c r="F45" t="n">
         <v>0.532</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="2">
+    <row r="46">
+      <c r="A46" s="2" t="n">
         <v>41912</v>
       </c>
-      <c r="B46">
+      <c r="B46" t="n">
         <v>0.1123</v>
       </c>
-      <c r="C46">
+      <c r="C46" t="n">
         <v>0.1479</v>
       </c>
-      <c r="D46">
+      <c r="D46" t="n">
         <v>0.1014</v>
       </c>
-      <c r="E46">
+      <c r="E46" t="n">
         <v>0.1092</v>
       </c>
-      <c r="F46">
+      <c r="F46" t="n">
         <v>0.5292</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="2">
+    <row r="47">
+      <c r="A47" s="2" t="n">
         <v>42004</v>
       </c>
-      <c r="B47">
+      <c r="B47" t="n">
         <v>0.1143</v>
       </c>
-      <c r="C47">
+      <c r="C47" t="n">
         <v>0.1507</v>
       </c>
-      <c r="D47">
+      <c r="D47" t="n">
         <v>0.0985</v>
       </c>
-      <c r="E47">
+      <c r="E47" t="n">
         <v>0.1113</v>
       </c>
-      <c r="F47">
+      <c r="F47" t="n">
         <v>0.5251</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="2">
+    <row r="48">
+      <c r="A48" s="2" t="n">
         <v>42094</v>
       </c>
-      <c r="B48">
+      <c r="B48" t="n">
         <v>0.114</v>
       </c>
-      <c r="C48">
+      <c r="C48" t="n">
         <v>0.1494</v>
       </c>
-      <c r="D48">
+      <c r="D48" t="n">
         <v>0.09520000000000001</v>
       </c>
-      <c r="E48">
+      <c r="E48" t="n">
         <v>0.112</v>
       </c>
-      <c r="F48">
+      <c r="F48" t="n">
         <v>0.5295</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="2">
+    <row r="49">
+      <c r="A49" s="2" t="n">
         <v>42185</v>
       </c>
-      <c r="B49">
+      <c r="B49" t="n">
         <v>0.1147</v>
       </c>
-      <c r="C49">
+      <c r="C49" t="n">
         <v>0.1408</v>
       </c>
-      <c r="D49">
+      <c r="D49" t="n">
         <v>0.0954</v>
       </c>
-      <c r="E49">
+      <c r="E49" t="n">
         <v>0.111</v>
       </c>
-      <c r="F49">
+      <c r="F49" t="n">
         <v>0.5381</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="2">
+    <row r="50">
+      <c r="A50" s="2" t="n">
         <v>42277</v>
       </c>
-      <c r="B50">
+      <c r="B50" t="n">
         <v>0.115</v>
       </c>
-      <c r="C50">
+      <c r="C50" t="n">
         <v>0.139</v>
       </c>
-      <c r="D50">
+      <c r="D50" t="n">
         <v>0.09520000000000001</v>
       </c>
-      <c r="E50">
+      <c r="E50" t="n">
         <v>0.1123</v>
       </c>
-      <c r="F50">
+      <c r="F50" t="n">
         <v>0.5385</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="2">
+    <row r="51">
+      <c r="A51" s="2" t="n">
         <v>42369</v>
       </c>
-      <c r="B51">
+      <c r="B51" t="n">
         <v>0.1153</v>
       </c>
-      <c r="C51">
+      <c r="C51" t="n">
         <v>0.1347</v>
       </c>
-      <c r="D51">
+      <c r="D51" t="n">
         <v>0.0914</v>
       </c>
-      <c r="E51">
+      <c r="E51" t="n">
         <v>0.1133</v>
       </c>
-      <c r="F51">
+      <c r="F51" t="n">
         <v>0.5453</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="2">
+    <row r="52">
+      <c r="A52" s="2" t="n">
         <v>42460</v>
       </c>
-      <c r="B52">
+      <c r="B52" t="n">
         <v>0.1138</v>
       </c>
-      <c r="C52">
+      <c r="C52" t="n">
         <v>0.1387</v>
       </c>
-      <c r="D52">
+      <c r="D52" t="n">
         <v>0.0924</v>
       </c>
-      <c r="E52">
+      <c r="E52" t="n">
         <v>0.1148</v>
       </c>
-      <c r="F52">
+      <c r="F52" t="n">
         <v>0.5403</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="2">
+    <row r="53">
+      <c r="A53" s="2" t="n">
         <v>42551</v>
       </c>
-      <c r="B53">
+      <c r="B53" t="n">
         <v>0.1122</v>
       </c>
-      <c r="C53">
+      <c r="C53" t="n">
         <v>0.1388</v>
       </c>
-      <c r="D53">
+      <c r="D53" t="n">
         <v>0.0924</v>
       </c>
-      <c r="E53">
+      <c r="E53" t="n">
         <v>0.115</v>
       </c>
-      <c r="F53">
+      <c r="F53" t="n">
         <v>0.5416</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="2">
+    <row r="54">
+      <c r="A54" s="2" t="n">
         <v>42643</v>
       </c>
-      <c r="B54">
+      <c r="B54" t="n">
         <v>0.1107</v>
       </c>
-      <c r="C54">
+      <c r="C54" t="n">
         <v>0.1413</v>
       </c>
-      <c r="D54">
+      <c r="D54" t="n">
         <v>0.0905</v>
       </c>
-      <c r="E54">
+      <c r="E54" t="n">
         <v>0.1161</v>
       </c>
-      <c r="F54">
+      <c r="F54" t="n">
         <v>0.5413</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="2">
+    <row r="55">
+      <c r="A55" s="2" t="n">
         <v>42735</v>
       </c>
-      <c r="B55">
+      <c r="B55" t="n">
         <v>0.1119</v>
       </c>
-      <c r="C55">
+      <c r="C55" t="n">
         <v>0.139</v>
       </c>
-      <c r="D55">
+      <c r="D55" t="n">
         <v>0.0901</v>
       </c>
-      <c r="E55">
+      <c r="E55" t="n">
         <v>0.1153</v>
       </c>
-      <c r="F55">
+      <c r="F55" t="n">
         <v>0.5438</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="2">
+    <row r="56">
+      <c r="A56" s="2" t="n">
         <v>42825</v>
       </c>
-      <c r="B56">
+      <c r="B56" t="n">
         <v>0.1126</v>
       </c>
-      <c r="C56">
+      <c r="C56" t="n">
         <v>0.1411</v>
       </c>
-      <c r="D56">
+      <c r="D56" t="n">
         <v>0.09030000000000001</v>
       </c>
-      <c r="E56">
+      <c r="E56" t="n">
         <v>0.1154</v>
       </c>
-      <c r="F56">
+      <c r="F56" t="n">
         <v>0.5406</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="2">
+    <row r="57">
+      <c r="A57" s="2" t="n">
         <v>42916</v>
       </c>
-      <c r="B57">
+      <c r="B57" t="n">
         <v>0.1118</v>
       </c>
-      <c r="C57">
+      <c r="C57" t="n">
         <v>0.141</v>
       </c>
-      <c r="D57">
+      <c r="D57" t="n">
         <v>0.09180000000000001</v>
       </c>
-      <c r="E57">
+      <c r="E57" t="n">
         <v>0.1135</v>
       </c>
-      <c r="F57">
+      <c r="F57" t="n">
         <v>0.5417999999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="2">
+    <row r="58">
+      <c r="A58" s="2" t="n">
         <v>43008</v>
       </c>
-      <c r="B58">
+      <c r="B58" t="n">
         <v>0.1118</v>
       </c>
-      <c r="C58">
+      <c r="C58" t="n">
         <v>0.1396</v>
       </c>
-      <c r="D58">
+      <c r="D58" t="n">
         <v>0.0912</v>
       </c>
-      <c r="E58">
+      <c r="E58" t="n">
         <v>0.1127</v>
       </c>
-      <c r="F58">
+      <c r="F58" t="n">
         <v>0.5447</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="2">
+    <row r="59">
+      <c r="A59" s="2" t="n">
         <v>43100</v>
       </c>
-      <c r="B59">
+      <c r="B59" t="n">
         <v>0.1125</v>
       </c>
-      <c r="C59">
+      <c r="C59" t="n">
         <v>0.1375</v>
       </c>
-      <c r="D59">
+      <c r="D59" t="n">
         <v>0.08890000000000001</v>
       </c>
-      <c r="E59">
+      <c r="E59" t="n">
         <v>0.1122</v>
       </c>
-      <c r="F59">
+      <c r="F59" t="n">
         <v>0.5488</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="2">
+    <row r="60">
+      <c r="A60" s="2" t="n">
         <v>43190</v>
       </c>
-      <c r="B60">
+      <c r="B60" t="n">
         <v>0.1126</v>
       </c>
-      <c r="C60">
+      <c r="C60" t="n">
         <v>0.1402</v>
       </c>
-      <c r="D60">
+      <c r="D60" t="n">
         <v>0.0897</v>
       </c>
-      <c r="E60">
+      <c r="E60" t="n">
         <v>0.1095</v>
       </c>
-      <c r="F60">
+      <c r="F60" t="n">
         <v>0.548</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="2">
+    <row r="61">
+      <c r="A61" s="2" t="n">
         <v>43281</v>
       </c>
-      <c r="B61">
+      <c r="B61" t="n">
         <v>0.1115</v>
       </c>
-      <c r="C61">
+      <c r="C61" t="n">
         <v>0.1374</v>
       </c>
-      <c r="D61">
+      <c r="D61" t="n">
         <v>0.0886</v>
       </c>
-      <c r="E61">
+      <c r="E61" t="n">
         <v>0.1062</v>
       </c>
-      <c r="F61">
+      <c r="F61" t="n">
         <v>0.5563</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="2">
+    <row r="62">
+      <c r="A62" s="2" t="n">
         <v>43373</v>
       </c>
-      <c r="B62">
+      <c r="B62" t="n">
         <v>0.1131</v>
       </c>
-      <c r="C62">
+      <c r="C62" t="n">
         <v>0.1381</v>
       </c>
-      <c r="D62">
+      <c r="D62" t="n">
         <v>0.089</v>
       </c>
-      <c r="E62">
+      <c r="E62" t="n">
         <v>0.1048</v>
       </c>
-      <c r="F62">
+      <c r="F62" t="n">
         <v>0.555</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="2">
+    <row r="63">
+      <c r="A63" s="2" t="n">
         <v>43465</v>
       </c>
-      <c r="B63">
+      <c r="B63" t="n">
         <v>0.1105</v>
       </c>
-      <c r="C63">
+      <c r="C63" t="n">
         <v>0.1375</v>
       </c>
-      <c r="D63">
+      <c r="D63" t="n">
         <v>0.0872</v>
       </c>
-      <c r="E63">
+      <c r="E63" t="n">
         <v>0.1047</v>
       </c>
-      <c r="F63">
+      <c r="F63" t="n">
         <v>0.5602</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="2">
+    <row r="64">
+      <c r="A64" s="2" t="n">
         <v>43555</v>
       </c>
-      <c r="B64">
+      <c r="B64" t="n">
         <v>0.1087</v>
       </c>
-      <c r="C64">
+      <c r="C64" t="n">
         <v>0.1404</v>
       </c>
-      <c r="D64">
+      <c r="D64" t="n">
         <v>0.0876</v>
       </c>
-      <c r="E64">
+      <c r="E64" t="n">
         <v>0.1022</v>
       </c>
-      <c r="F64">
+      <c r="F64" t="n">
         <v>0.5611</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="2">
+    <row r="65">
+      <c r="A65" s="2" t="n">
         <v>43646</v>
       </c>
-      <c r="B65">
+      <c r="B65" t="n">
         <v>0.1085</v>
       </c>
-      <c r="C65">
+      <c r="C65" t="n">
         <v>0.1426</v>
       </c>
-      <c r="D65">
+      <c r="D65" t="n">
         <v>0.08840000000000001</v>
       </c>
-      <c r="E65">
+      <c r="E65" t="n">
         <v>0.1029</v>
       </c>
-      <c r="F65">
+      <c r="F65" t="n">
         <v>0.5576</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="2">
+    <row r="66">
+      <c r="A66" s="2" t="n">
         <v>43738</v>
       </c>
-      <c r="B66">
+      <c r="B66" t="n">
         <v>0.1084</v>
       </c>
-      <c r="C66">
+      <c r="C66" t="n">
         <v>0.1415</v>
       </c>
-      <c r="D66">
+      <c r="D66" t="n">
         <v>0.08799999999999999</v>
       </c>
-      <c r="E66">
+      <c r="E66" t="n">
         <v>0.1021</v>
       </c>
-      <c r="F66">
+      <c r="F66" t="n">
         <v>0.5600000000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="2">
+    <row r="67">
+      <c r="A67" s="2" t="n">
         <v>43830</v>
       </c>
-      <c r="B67">
+      <c r="B67" t="n">
         <v>0.1096</v>
       </c>
-      <c r="C67">
+      <c r="C67" t="n">
         <v>0.1382</v>
       </c>
-      <c r="D67">
+      <c r="D67" t="n">
         <v>0.08599999999999999</v>
       </c>
-      <c r="E67">
+      <c r="E67" t="n">
         <v>0.1013</v>
       </c>
-      <c r="F67">
+      <c r="F67" t="n">
         <v>0.5649</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="2">
+    <row r="68">
+      <c r="A68" s="2" t="n">
         <v>43921</v>
       </c>
-      <c r="B68">
+      <c r="B68" t="n">
         <v>0.1102</v>
       </c>
-      <c r="C68">
+      <c r="C68" t="n">
         <v>0.146</v>
       </c>
-      <c r="D68">
+      <c r="D68" t="n">
         <v>0.0886</v>
       </c>
-      <c r="E68">
+      <c r="E68" t="n">
         <v>0.09569999999999999</v>
       </c>
-      <c r="F68">
+      <c r="F68" t="n">
         <v>0.5595</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="2">
+    <row r="69">
+      <c r="A69" s="2" t="n">
         <v>44012</v>
       </c>
-      <c r="B69">
+      <c r="B69" t="n">
         <v>0.1123</v>
       </c>
-      <c r="C69">
+      <c r="C69" t="n">
         <v>0.1465</v>
       </c>
-      <c r="D69">
+      <c r="D69" t="n">
         <v>0.0849</v>
       </c>
-      <c r="E69">
+      <c r="E69" t="n">
         <v>0.0935</v>
       </c>
-      <c r="F69">
+      <c r="F69" t="n">
         <v>0.5629</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="2">
+    <row r="70">
+      <c r="A70" s="2" t="n">
         <v>44104</v>
       </c>
-      <c r="B70">
+      <c r="B70" t="n">
         <v>0.1117</v>
       </c>
-      <c r="C70">
+      <c r="C70" t="n">
         <v>0.1486</v>
       </c>
-      <c r="D70">
+      <c r="D70" t="n">
         <v>0.0854</v>
       </c>
-      <c r="E70">
+      <c r="E70" t="n">
         <v>0.0906</v>
       </c>
-      <c r="F70">
+      <c r="F70" t="n">
         <v>0.5636</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="2">
+    <row r="71">
+      <c r="A71" s="2" t="n">
         <v>44196</v>
       </c>
-      <c r="B71">
+      <c r="B71" t="n">
         <v>0.1134</v>
       </c>
-      <c r="C71">
+      <c r="C71" t="n">
         <v>0.1519</v>
       </c>
-      <c r="D71">
+      <c r="D71" t="n">
         <v>0.0834</v>
       </c>
-      <c r="E71">
+      <c r="E71" t="n">
         <v>0.0888</v>
       </c>
-      <c r="F71">
+      <c r="F71" t="n">
         <v>0.5624</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
-      <c r="A72" s="2">
+    <row r="72">
+      <c r="A72" s="2" t="n">
         <v>44286</v>
       </c>
-      <c r="B72">
+      <c r="B72" t="n">
         <v>0.1128</v>
       </c>
-      <c r="C72">
+      <c r="C72" t="n">
         <v>0.1562</v>
       </c>
-      <c r="D72">
+      <c r="D72" t="n">
         <v>0.08210000000000001</v>
       </c>
-      <c r="E72">
+      <c r="E72" t="n">
         <v>0.0864</v>
       </c>
-      <c r="F72">
+      <c r="F72" t="n">
         <v>0.5625</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
-      <c r="A73" s="2">
+    <row r="73">
+      <c r="A73" s="2" t="n">
         <v>44377</v>
       </c>
-      <c r="B73">
+      <c r="B73" t="n">
         <v>0.1132</v>
       </c>
-      <c r="C73">
+      <c r="C73" t="n">
         <v>0.1537</v>
       </c>
-      <c r="D73">
+      <c r="D73" t="n">
         <v>0.08160000000000001</v>
       </c>
-      <c r="E73">
+      <c r="E73" t="n">
         <v>0.0856</v>
       </c>
-      <c r="F73">
+      <c r="F73" t="n">
         <v>0.5658</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
-      <c r="A74" s="2">
+    <row r="74">
+      <c r="A74" s="2" t="n">
         <v>44469</v>
       </c>
-      <c r="B74">
+      <c r="B74" t="n">
         <v>0.1134</v>
       </c>
-      <c r="C74">
+      <c r="C74" t="n">
         <v>0.1554</v>
       </c>
-      <c r="D74">
+      <c r="D74" t="n">
         <v>0.0805</v>
       </c>
-      <c r="E74">
+      <c r="E74" t="n">
         <v>0.0844</v>
       </c>
-      <c r="F74">
+      <c r="F74" t="n">
         <v>0.5664</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
-      <c r="A75" s="2">
+    <row r="75">
+      <c r="A75" s="2" t="n">
         <v>44561</v>
       </c>
-      <c r="B75">
+      <c r="B75" t="n">
         <v>0.1168</v>
       </c>
-      <c r="C75">
+      <c r="C75" t="n">
         <v>0.1533</v>
       </c>
-      <c r="D75">
+      <c r="D75" t="n">
         <v>0.0774</v>
       </c>
-      <c r="E75">
+      <c r="E75" t="n">
         <v>0.0825</v>
       </c>
-      <c r="F75">
+      <c r="F75" t="n">
         <v>0.5702</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
-      <c r="A76" s="2">
+    <row r="76">
+      <c r="A76" s="2" t="n">
         <v>44651</v>
       </c>
-      <c r="B76">
+      <c r="B76" t="n">
         <v>0.1148</v>
       </c>
-      <c r="C76">
+      <c r="C76" t="n">
         <v>0.1587</v>
       </c>
-      <c r="D76">
+      <c r="D76" t="n">
         <v>0.0784</v>
       </c>
-      <c r="E76">
+      <c r="E76" t="n">
         <v>0.0805</v>
       </c>
-      <c r="F76">
+      <c r="F76" t="n">
         <v>0.5675</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
-      <c r="A77" s="2">
+    <row r="77">
+      <c r="A77" s="2" t="n">
         <v>44742</v>
       </c>
-      <c r="B77">
+      <c r="B77" t="n">
         <v>0.1126</v>
       </c>
-      <c r="C77">
+      <c r="C77" t="n">
         <v>0.1561</v>
       </c>
-      <c r="D77">
+      <c r="D77" t="n">
         <v>0.0794</v>
       </c>
-      <c r="E77">
+      <c r="E77" t="n">
         <v>0.0791</v>
       </c>
-      <c r="F77">
+      <c r="F77" t="n">
         <v>0.5728</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="2">
+    <row r="78">
+      <c r="A78" s="2" t="n">
         <v>44834</v>
       </c>
-      <c r="B78">
+      <c r="B78" t="n">
         <v>0.1114</v>
       </c>
-      <c r="C78">
+      <c r="C78" t="n">
         <v>0.153</v>
       </c>
-      <c r="D78">
+      <c r="D78" t="n">
         <v>0.0793</v>
       </c>
-      <c r="E78">
+      <c r="E78" t="n">
         <v>0.07920000000000001</v>
       </c>
-      <c r="F78">
+      <c r="F78" t="n">
         <v>0.5770999999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
-      <c r="A79" s="2">
+    <row r="79">
+      <c r="A79" s="2" t="n">
         <v>44926</v>
       </c>
-      <c r="B79">
+      <c r="B79" t="n">
         <v>0.1115</v>
       </c>
-      <c r="C79">
+      <c r="C79" t="n">
         <v>0.1476</v>
       </c>
-      <c r="D79">
+      <c r="D79" t="n">
         <v>0.0814</v>
       </c>
-      <c r="E79">
+      <c r="E79" t="n">
         <v>0.07920000000000001</v>
       </c>
-      <c r="F79">
+      <c r="F79" t="n">
         <v>0.5804</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
-      <c r="A80" s="2">
+    <row r="80">
+      <c r="A80" s="2" t="n">
         <v>45016</v>
       </c>
-      <c r="B80">
+      <c r="B80" t="n">
         <v>0.1154</v>
       </c>
-      <c r="C80">
+      <c r="C80" t="n">
         <v>0.1498</v>
       </c>
-      <c r="D80">
+      <c r="D80" t="n">
         <v>0.0789</v>
       </c>
-      <c r="E80">
+      <c r="E80" t="n">
         <v>0.0774</v>
       </c>
-      <c r="F80">
+      <c r="F80" t="n">
         <v>0.5785</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
-      <c r="A81" s="2">
+    <row r="81">
+      <c r="A81" s="2" t="n">
         <v>45107</v>
       </c>
-      <c r="B81">
+      <c r="B81" t="n">
         <v>0.1135</v>
       </c>
-      <c r="C81">
+      <c r="C81" t="n">
         <v>0.1567</v>
       </c>
-      <c r="D81">
+      <c r="D81" t="n">
         <v>0.07920000000000001</v>
       </c>
-      <c r="E81">
+      <c r="E81" t="n">
         <v>0.07729999999999999</v>
       </c>
-      <c r="F81">
+      <c r="F81" t="n">
         <v>0.5733</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
-      <c r="A82" s="2">
+    <row r="82">
+      <c r="A82" s="2" t="n">
         <v>45199</v>
       </c>
-      <c r="B82">
+      <c r="B82" t="n">
         <v>0.1142</v>
       </c>
-      <c r="C82">
+      <c r="C82" t="n">
         <v>0.1568</v>
       </c>
-      <c r="D82">
+      <c r="D82" t="n">
         <v>0.0767</v>
       </c>
-      <c r="E82">
+      <c r="E82" t="n">
         <v>0.0789</v>
       </c>
-      <c r="F82">
+      <c r="F82" t="n">
         <v>0.5734</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
-      <c r="A83" s="2">
+    <row r="83">
+      <c r="A83" s="2" t="n">
         <v>45291</v>
       </c>
-      <c r="B83">
+      <c r="B83" t="n">
         <v>0.1163</v>
       </c>
-      <c r="C83">
+      <c r="C83" t="n">
         <v>0.1554</v>
       </c>
-      <c r="D83">
+      <c r="D83" t="n">
         <v>0.0771</v>
       </c>
-      <c r="E83">
+      <c r="E83" t="n">
         <v>0.0793</v>
       </c>
-      <c r="F83">
+      <c r="F83" t="n">
         <v>0.5719</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/datasets/bank_asset_percentage.xlsx
+++ b/datasets/bank_asset_percentage.xlsx
@@ -1,40 +1,66 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Bank of America</t>
+  </si>
+  <si>
+    <t>Chase</t>
+  </si>
+  <si>
+    <t>Citibank</t>
+  </si>
+  <si>
+    <t>Wells Fargo</t>
+  </si>
+  <si>
+    <t>Other Banks</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,94 +75,36 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -424,1692 +392,1694 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F83"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Bank of America</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Chase</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Citibank</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Wells Fargo</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Other Banks</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2">
         <v>37894</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>0.09370000000000001</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>0.09569999999999999</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>0.0832</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>0.0337</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>0.6936</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+    <row r="3" spans="1:6">
+      <c r="A3" s="2">
         <v>37986</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>0.0912</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>0.09279999999999999</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>0.0859</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>0.037</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>0.6931</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+    <row r="4" spans="1:6">
+      <c r="A4" s="2">
         <v>38077</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>0.0989</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>0.0929</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>0.0868</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>0.0498</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>0.6716</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+    <row r="5" spans="1:6">
+      <c r="A5" s="2">
         <v>38168</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>0.0979</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>0.0906</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>0.0898</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>0.0505</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>0.6713</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
+    <row r="6" spans="1:6">
+      <c r="A6" s="2">
         <v>38260</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>0.0999</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>0.0893</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>0.08790000000000001</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>0.049</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>0.6739000000000001</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
+    <row r="7" spans="1:6">
+      <c r="A7" s="2">
         <v>38352</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>0.102</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>0.1279</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>0.09180000000000001</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>0.0484</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>0.6299</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
+    <row r="8" spans="1:6">
+      <c r="A8" s="2">
         <v>38442</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>0.1083</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>0.127</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>0.0885</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>0.0475</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>0.6287</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
+    <row r="9" spans="1:6">
+      <c r="A9" s="2">
         <v>38533</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>0.133</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>0.1235</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>0.0895</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>0.0462</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>0.6079</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
+    <row r="10" spans="1:6">
+      <c r="A10" s="2">
         <v>38625</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>0.1313</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>0.1252</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>0.08749999999999999</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>0.0472</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>0.6088</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
+    <row r="11" spans="1:6">
+      <c r="A11" s="2">
         <v>38717</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>0.1323</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>0.124</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>0.0864</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>0.0493</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>0.6081</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
+    <row r="12" spans="1:6">
+      <c r="A12" s="2">
         <v>38807</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>0.1304</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>0.129</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>0.08840000000000001</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>0.0491</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>0.6031</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
+    <row r="13" spans="1:6">
+      <c r="A13" s="2">
         <v>38898</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>0.1328</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>0.131</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>0.089</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>0.0476</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>0.5997</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
+    <row r="14" spans="1:6">
+      <c r="A14" s="2">
         <v>38990</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>0.1334</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>0.1321</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>0.0919</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>0.0451</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>0.5974</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
+    <row r="15" spans="1:6">
+      <c r="A15" s="2">
         <v>39082</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>0.1303</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>0.1284</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>0.111</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>0.0434</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>0.5869</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
+    <row r="16" spans="1:6">
+      <c r="A16" s="2">
         <v>39172</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>0.1306</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>0.1327</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>0.1168</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>0.043</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>0.5769</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
+    <row r="17" spans="1:6">
+      <c r="A17" s="2">
         <v>39263</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>0.1319</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>0.1319</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>0.1193</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>0.0451</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>0.5718</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
+    <row r="18" spans="1:6">
+      <c r="A18" s="2">
         <v>39355</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>0.131</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>0.1263</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>0.1252</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>0.0452</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>0.5722</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
+    <row r="19" spans="1:6">
+      <c r="A19" s="2">
         <v>39447</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>0.1285</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>0.1291</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>0.1225</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>0.0458</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>0.5742</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
+    <row r="20" spans="1:6">
+      <c r="A20" s="2">
         <v>39538</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>0.1287</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>0.1336</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>0.1227</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>0.0462</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>0.5688</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
+    <row r="21" spans="1:6">
+      <c r="A21" s="2">
         <v>39629</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>0.1269</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>0.1318</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>0.1174</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>0.0481</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>0.5758</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
+    <row r="22" spans="1:6">
+      <c r="A22" s="2">
         <v>39721</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>0.1222</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>0.159</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>0.1085</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>0.0463</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>0.5639999999999999</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
+    <row r="23" spans="1:6">
+      <c r="A23" s="2">
         <v>39813</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>0.1288</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>0.1528</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>0.1074</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>0.0472</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>0.5639</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
+    <row r="24" spans="1:6">
+      <c r="A24" s="2">
         <v>39903</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>0.129</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>0.1518</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>0.1028</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>0.0497</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>0.5668</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
+    <row r="25" spans="1:6">
+      <c r="A25" s="2">
         <v>39994</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>0.1318</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>0.1512</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>0.1059</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>0.049</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>0.5620000000000001</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
+    <row r="26" spans="1:6">
+      <c r="A26" s="2">
         <v>40086</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>0.1321</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>0.1511</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>0.1074</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>0.0496</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>0.5598</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
+    <row r="27" spans="1:6">
+      <c r="A27" s="2">
         <v>40178</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>0.1328</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>0.1475</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>0.1053</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>0.0552</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>0.5593</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
+    <row r="28" spans="1:6">
+      <c r="A28" s="2">
         <v>40268</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>0.1326</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>0.1484</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>0.1038</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>0.0945</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>0.5207000000000001</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
+    <row r="29" spans="1:6">
+      <c r="A29" s="2">
         <v>40359</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>0.136</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>0.1404</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>0.1036</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>0.0961</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>0.5239</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
+    <row r="30" spans="1:6">
+      <c r="A30" s="2">
         <v>40451</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>0.1313</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>0.1449</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>0.1066</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>0.0944</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>0.5228</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
+    <row r="31" spans="1:6">
+      <c r="A31" s="2">
         <v>40543</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>0.1314</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>0.1446</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>0.1023</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>0.0977</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>0.5239</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
+    <row r="32" spans="1:6">
+      <c r="A32" s="2">
         <v>40633</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>0.1275</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>0.1514</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>0.102</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>0.096</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>0.5229</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
+    <row r="33" spans="1:6">
+      <c r="A33" s="2">
         <v>40724</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>0.1254</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>0.1545</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>0.1049</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>0.0953</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>0.5199</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
+    <row r="34" spans="1:6">
+      <c r="A34" s="2">
         <v>40816</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>0.1244</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>0.155</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>0.1104</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>0.0969</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>0.5133</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
+    <row r="35" spans="1:6">
+      <c r="A35" s="2">
         <v>40908</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>0.1224</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>0.1527</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>0.1086</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>0.0979</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>0.5183</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
+    <row r="36" spans="1:6">
+      <c r="A36" s="2">
         <v>40999</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>0.1206</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>0.1535</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>0.1093</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>0.0984</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>0.5182</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
+    <row r="37" spans="1:6">
+      <c r="A37" s="2">
         <v>41090</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>0.1193</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>0.1497</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>0.1113</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>0.0974</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>0.5223</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
+    <row r="38" spans="1:6">
+      <c r="A38" s="2">
         <v>41182</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>0.1178</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>0.1504</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>0.111</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>0.09909999999999999</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>0.5217000000000001</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
+    <row r="39" spans="1:6">
+      <c r="A39" s="2">
         <v>41274</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>0.1168</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>0.1503</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>0.1041</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>0.1004</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>0.5283</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
+    <row r="40" spans="1:6">
+      <c r="A40" s="2">
         <v>41364</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>0.1158</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>0.1547</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>0.1037</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
         <v>0.101</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40">
         <v>0.5249</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
+    <row r="41" spans="1:6">
+      <c r="A41" s="2">
         <v>41455</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>0.1136</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>0.1548</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>0.1048</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
         <v>0.1021</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>0.5247000000000001</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
+    <row r="42" spans="1:6">
+      <c r="A42" s="2">
         <v>41547</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>0.1126</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>0.1557</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>0.1052</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
         <v>0.1039</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42">
         <v>0.5225</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
+    <row r="43" spans="1:6">
+      <c r="A43" s="2">
         <v>41639</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>0.1108</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>0.1504</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>0.1041</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
         <v>0.1062</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43">
         <v>0.5284</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
+    <row r="44" spans="1:6">
+      <c r="A44" s="2">
         <v>41729</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>0.111</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>0.1501</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>0.1037</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
         <v>0.1057</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>0.5294</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
+    <row r="45" spans="1:6">
+      <c r="A45" s="2">
         <v>41820</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>0.1086</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>0.1495</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>0.1027</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
         <v>0.1073</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>0.532</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
+    <row r="46" spans="1:6">
+      <c r="A46" s="2">
         <v>41912</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>0.1123</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>0.1479</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>0.1014</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
         <v>0.1092</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46">
         <v>0.5292</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
+    <row r="47" spans="1:6">
+      <c r="A47" s="2">
         <v>42004</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>0.1143</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>0.1507</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>0.0985</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
         <v>0.1113</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47">
         <v>0.5251</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
+    <row r="48" spans="1:6">
+      <c r="A48" s="2">
         <v>42094</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>0.114</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>0.1494</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>0.09520000000000001</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
         <v>0.112</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48">
         <v>0.5295</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
+    <row r="49" spans="1:6">
+      <c r="A49" s="2">
         <v>42185</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>0.1147</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>0.1408</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>0.0954</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
         <v>0.111</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49">
         <v>0.5381</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
+    <row r="50" spans="1:6">
+      <c r="A50" s="2">
         <v>42277</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>0.115</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>0.139</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50">
         <v>0.09520000000000001</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E50">
         <v>0.1123</v>
       </c>
-      <c r="F50" t="n">
+      <c r="F50">
         <v>0.5385</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
+    <row r="51" spans="1:6">
+      <c r="A51" s="2">
         <v>42369</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>0.1153</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>0.1347</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51">
         <v>0.0914</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E51">
         <v>0.1133</v>
       </c>
-      <c r="F51" t="n">
+      <c r="F51">
         <v>0.5453</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
+    <row r="52" spans="1:6">
+      <c r="A52" s="2">
         <v>42460</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>0.1138</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>0.1387</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52">
         <v>0.0924</v>
       </c>
-      <c r="E52" t="n">
+      <c r="E52">
         <v>0.1148</v>
       </c>
-      <c r="F52" t="n">
+      <c r="F52">
         <v>0.5403</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
+    <row r="53" spans="1:6">
+      <c r="A53" s="2">
         <v>42551</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>0.1122</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>0.1388</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53">
         <v>0.0924</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E53">
         <v>0.115</v>
       </c>
-      <c r="F53" t="n">
+      <c r="F53">
         <v>0.5416</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
+    <row r="54" spans="1:6">
+      <c r="A54" s="2">
         <v>42643</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>0.1107</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>0.1413</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54">
         <v>0.0905</v>
       </c>
-      <c r="E54" t="n">
+      <c r="E54">
         <v>0.1161</v>
       </c>
-      <c r="F54" t="n">
+      <c r="F54">
         <v>0.5413</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
+    <row r="55" spans="1:6">
+      <c r="A55" s="2">
         <v>42735</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>0.1119</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55">
         <v>0.139</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D55">
         <v>0.0901</v>
       </c>
-      <c r="E55" t="n">
+      <c r="E55">
         <v>0.1153</v>
       </c>
-      <c r="F55" t="n">
+      <c r="F55">
         <v>0.5438</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
+    <row r="56" spans="1:6">
+      <c r="A56" s="2">
         <v>42825</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>0.1126</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56">
         <v>0.1411</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D56">
         <v>0.09030000000000001</v>
       </c>
-      <c r="E56" t="n">
+      <c r="E56">
         <v>0.1154</v>
       </c>
-      <c r="F56" t="n">
+      <c r="F56">
         <v>0.5406</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
+    <row r="57" spans="1:6">
+      <c r="A57" s="2">
         <v>42916</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>0.1118</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57">
         <v>0.141</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D57">
         <v>0.09180000000000001</v>
       </c>
-      <c r="E57" t="n">
+      <c r="E57">
         <v>0.1135</v>
       </c>
-      <c r="F57" t="n">
+      <c r="F57">
         <v>0.5417999999999999</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
+    <row r="58" spans="1:6">
+      <c r="A58" s="2">
         <v>43008</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>0.1118</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58">
         <v>0.1396</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D58">
         <v>0.0912</v>
       </c>
-      <c r="E58" t="n">
+      <c r="E58">
         <v>0.1127</v>
       </c>
-      <c r="F58" t="n">
+      <c r="F58">
         <v>0.5447</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
+    <row r="59" spans="1:6">
+      <c r="A59" s="2">
         <v>43100</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>0.1125</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59">
         <v>0.1375</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D59">
         <v>0.08890000000000001</v>
       </c>
-      <c r="E59" t="n">
+      <c r="E59">
         <v>0.1122</v>
       </c>
-      <c r="F59" t="n">
+      <c r="F59">
         <v>0.5488</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
+    <row r="60" spans="1:6">
+      <c r="A60" s="2">
         <v>43190</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>0.1126</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60">
         <v>0.1402</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D60">
         <v>0.0897</v>
       </c>
-      <c r="E60" t="n">
+      <c r="E60">
         <v>0.1095</v>
       </c>
-      <c r="F60" t="n">
+      <c r="F60">
         <v>0.548</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
+    <row r="61" spans="1:6">
+      <c r="A61" s="2">
         <v>43281</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>0.1115</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61">
         <v>0.1374</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D61">
         <v>0.0886</v>
       </c>
-      <c r="E61" t="n">
+      <c r="E61">
         <v>0.1062</v>
       </c>
-      <c r="F61" t="n">
+      <c r="F61">
         <v>0.5563</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
+    <row r="62" spans="1:6">
+      <c r="A62" s="2">
         <v>43373</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>0.1131</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62">
         <v>0.1381</v>
       </c>
-      <c r="D62" t="n">
+      <c r="D62">
         <v>0.089</v>
       </c>
-      <c r="E62" t="n">
+      <c r="E62">
         <v>0.1048</v>
       </c>
-      <c r="F62" t="n">
+      <c r="F62">
         <v>0.555</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
+    <row r="63" spans="1:6">
+      <c r="A63" s="2">
         <v>43465</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63">
         <v>0.1105</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63">
         <v>0.1375</v>
       </c>
-      <c r="D63" t="n">
+      <c r="D63">
         <v>0.0872</v>
       </c>
-      <c r="E63" t="n">
+      <c r="E63">
         <v>0.1047</v>
       </c>
-      <c r="F63" t="n">
+      <c r="F63">
         <v>0.5602</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
+    <row r="64" spans="1:6">
+      <c r="A64" s="2">
         <v>43555</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>0.1087</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64">
         <v>0.1404</v>
       </c>
-      <c r="D64" t="n">
+      <c r="D64">
         <v>0.0876</v>
       </c>
-      <c r="E64" t="n">
+      <c r="E64">
         <v>0.1022</v>
       </c>
-      <c r="F64" t="n">
+      <c r="F64">
         <v>0.5611</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
+    <row r="65" spans="1:6">
+      <c r="A65" s="2">
         <v>43646</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>0.1085</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65">
         <v>0.1426</v>
       </c>
-      <c r="D65" t="n">
+      <c r="D65">
         <v>0.08840000000000001</v>
       </c>
-      <c r="E65" t="n">
+      <c r="E65">
         <v>0.1029</v>
       </c>
-      <c r="F65" t="n">
+      <c r="F65">
         <v>0.5576</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
+    <row r="66" spans="1:6">
+      <c r="A66" s="2">
         <v>43738</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>0.1084</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66">
         <v>0.1415</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D66">
         <v>0.08799999999999999</v>
       </c>
-      <c r="E66" t="n">
+      <c r="E66">
         <v>0.1021</v>
       </c>
-      <c r="F66" t="n">
+      <c r="F66">
         <v>0.5600000000000001</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
+    <row r="67" spans="1:6">
+      <c r="A67" s="2">
         <v>43830</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67">
         <v>0.1096</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67">
         <v>0.1382</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D67">
         <v>0.08599999999999999</v>
       </c>
-      <c r="E67" t="n">
+      <c r="E67">
         <v>0.1013</v>
       </c>
-      <c r="F67" t="n">
+      <c r="F67">
         <v>0.5649</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
+    <row r="68" spans="1:6">
+      <c r="A68" s="2">
         <v>43921</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68">
         <v>0.1102</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68">
         <v>0.146</v>
       </c>
-      <c r="D68" t="n">
+      <c r="D68">
         <v>0.0886</v>
       </c>
-      <c r="E68" t="n">
+      <c r="E68">
         <v>0.09569999999999999</v>
       </c>
-      <c r="F68" t="n">
+      <c r="F68">
         <v>0.5595</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
+    <row r="69" spans="1:6">
+      <c r="A69" s="2">
         <v>44012</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69">
         <v>0.1123</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69">
         <v>0.1465</v>
       </c>
-      <c r="D69" t="n">
+      <c r="D69">
         <v>0.0849</v>
       </c>
-      <c r="E69" t="n">
+      <c r="E69">
         <v>0.0935</v>
       </c>
-      <c r="F69" t="n">
+      <c r="F69">
         <v>0.5629</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="2" t="n">
+    <row r="70" spans="1:6">
+      <c r="A70" s="2">
         <v>44104</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70">
         <v>0.1117</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70">
         <v>0.1486</v>
       </c>
-      <c r="D70" t="n">
+      <c r="D70">
         <v>0.0854</v>
       </c>
-      <c r="E70" t="n">
+      <c r="E70">
         <v>0.0906</v>
       </c>
-      <c r="F70" t="n">
+      <c r="F70">
         <v>0.5636</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="2" t="n">
+    <row r="71" spans="1:6">
+      <c r="A71" s="2">
         <v>44196</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71">
         <v>0.1134</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71">
         <v>0.1519</v>
       </c>
-      <c r="D71" t="n">
+      <c r="D71">
         <v>0.0834</v>
       </c>
-      <c r="E71" t="n">
+      <c r="E71">
         <v>0.0888</v>
       </c>
-      <c r="F71" t="n">
+      <c r="F71">
         <v>0.5624</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="2" t="n">
+    <row r="72" spans="1:6">
+      <c r="A72" s="2">
         <v>44286</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72">
         <v>0.1128</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72">
         <v>0.1562</v>
       </c>
-      <c r="D72" t="n">
+      <c r="D72">
         <v>0.08210000000000001</v>
       </c>
-      <c r="E72" t="n">
+      <c r="E72">
         <v>0.0864</v>
       </c>
-      <c r="F72" t="n">
+      <c r="F72">
         <v>0.5625</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="2" t="n">
+    <row r="73" spans="1:6">
+      <c r="A73" s="2">
         <v>44377</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73">
         <v>0.1132</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C73">
         <v>0.1537</v>
       </c>
-      <c r="D73" t="n">
+      <c r="D73">
         <v>0.08160000000000001</v>
       </c>
-      <c r="E73" t="n">
+      <c r="E73">
         <v>0.0856</v>
       </c>
-      <c r="F73" t="n">
+      <c r="F73">
         <v>0.5658</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="2" t="n">
+    <row r="74" spans="1:6">
+      <c r="A74" s="2">
         <v>44469</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74">
         <v>0.1134</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C74">
         <v>0.1554</v>
       </c>
-      <c r="D74" t="n">
+      <c r="D74">
         <v>0.0805</v>
       </c>
-      <c r="E74" t="n">
+      <c r="E74">
         <v>0.0844</v>
       </c>
-      <c r="F74" t="n">
+      <c r="F74">
         <v>0.5664</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="2" t="n">
+    <row r="75" spans="1:6">
+      <c r="A75" s="2">
         <v>44561</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75">
         <v>0.1168</v>
       </c>
-      <c r="C75" t="n">
+      <c r="C75">
         <v>0.1533</v>
       </c>
-      <c r="D75" t="n">
+      <c r="D75">
         <v>0.0774</v>
       </c>
-      <c r="E75" t="n">
+      <c r="E75">
         <v>0.0825</v>
       </c>
-      <c r="F75" t="n">
+      <c r="F75">
         <v>0.5702</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="2" t="n">
+    <row r="76" spans="1:6">
+      <c r="A76" s="2">
         <v>44651</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76">
         <v>0.1148</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C76">
         <v>0.1587</v>
       </c>
-      <c r="D76" t="n">
+      <c r="D76">
         <v>0.0784</v>
       </c>
-      <c r="E76" t="n">
+      <c r="E76">
         <v>0.0805</v>
       </c>
-      <c r="F76" t="n">
+      <c r="F76">
         <v>0.5675</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="2" t="n">
+    <row r="77" spans="1:6">
+      <c r="A77" s="2">
         <v>44742</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77">
         <v>0.1126</v>
       </c>
-      <c r="C77" t="n">
+      <c r="C77">
         <v>0.1561</v>
       </c>
-      <c r="D77" t="n">
+      <c r="D77">
         <v>0.0794</v>
       </c>
-      <c r="E77" t="n">
+      <c r="E77">
         <v>0.0791</v>
       </c>
-      <c r="F77" t="n">
+      <c r="F77">
         <v>0.5728</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="2" t="n">
+    <row r="78" spans="1:6">
+      <c r="A78" s="2">
         <v>44834</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78">
         <v>0.1114</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C78">
         <v>0.153</v>
       </c>
-      <c r="D78" t="n">
+      <c r="D78">
         <v>0.0793</v>
       </c>
-      <c r="E78" t="n">
+      <c r="E78">
         <v>0.07920000000000001</v>
       </c>
-      <c r="F78" t="n">
+      <c r="F78">
         <v>0.5770999999999999</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="2" t="n">
+    <row r="79" spans="1:6">
+      <c r="A79" s="2">
         <v>44926</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79">
         <v>0.1115</v>
       </c>
-      <c r="C79" t="n">
+      <c r="C79">
         <v>0.1476</v>
       </c>
-      <c r="D79" t="n">
+      <c r="D79">
         <v>0.0814</v>
       </c>
-      <c r="E79" t="n">
+      <c r="E79">
         <v>0.07920000000000001</v>
       </c>
-      <c r="F79" t="n">
+      <c r="F79">
         <v>0.5804</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
+    <row r="80" spans="1:6">
+      <c r="A80" s="2">
         <v>45016</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80">
         <v>0.1154</v>
       </c>
-      <c r="C80" t="n">
+      <c r="C80">
         <v>0.1498</v>
       </c>
-      <c r="D80" t="n">
+      <c r="D80">
         <v>0.0789</v>
       </c>
-      <c r="E80" t="n">
+      <c r="E80">
         <v>0.0774</v>
       </c>
-      <c r="F80" t="n">
+      <c r="F80">
         <v>0.5785</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="2" t="n">
+    <row r="81" spans="1:6">
+      <c r="A81" s="2">
         <v>45107</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81">
         <v>0.1135</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C81">
         <v>0.1567</v>
       </c>
-      <c r="D81" t="n">
+      <c r="D81">
         <v>0.07920000000000001</v>
       </c>
-      <c r="E81" t="n">
+      <c r="E81">
         <v>0.07729999999999999</v>
       </c>
-      <c r="F81" t="n">
+      <c r="F81">
         <v>0.5733</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="2" t="n">
+    <row r="82" spans="1:6">
+      <c r="A82" s="2">
         <v>45199</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82">
         <v>0.1142</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82">
         <v>0.1568</v>
       </c>
-      <c r="D82" t="n">
+      <c r="D82">
         <v>0.0767</v>
       </c>
-      <c r="E82" t="n">
+      <c r="E82">
         <v>0.0789</v>
       </c>
-      <c r="F82" t="n">
+      <c r="F82">
         <v>0.5734</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="2" t="n">
+    <row r="83" spans="1:6">
+      <c r="A83" s="2">
         <v>45291</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83">
         <v>0.1163</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C83">
         <v>0.1554</v>
       </c>
-      <c r="D83" t="n">
+      <c r="D83">
         <v>0.0771</v>
       </c>
-      <c r="E83" t="n">
+      <c r="E83">
         <v>0.0793</v>
       </c>
-      <c r="F83" t="n">
+      <c r="F83">
         <v>0.5719</v>
       </c>
     </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="2">
+        <v>45382</v>
+      </c>
+      <c r="B84">
+        <v>0.1151</v>
+      </c>
+      <c r="C84">
+        <v>0.1581</v>
+      </c>
+      <c r="D84">
+        <v>0.0767</v>
+      </c>
+      <c r="E84">
+        <v>0.07870000000000001</v>
+      </c>
+      <c r="F84">
+        <v>0.5715</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/datasets/bank_asset_percentage.xlsx
+++ b/datasets/bank_asset_percentage.xlsx
@@ -1,66 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Bank of America</t>
-  </si>
-  <si>
-    <t>Chase</t>
-  </si>
-  <si>
-    <t>Citibank</t>
-  </si>
-  <si>
-    <t>Wells Fargo</t>
-  </si>
-  <si>
-    <t>Other Banks</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -75,36 +49,94 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -392,1694 +424,1712 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Chase</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Citibank</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Wells Fargo</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Other Banks</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
         <v>37894</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>0.09370000000000001</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>0.09569999999999999</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>0.0832</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>0.0337</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>0.6936</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2">
+    <row r="3">
+      <c r="A3" s="2" t="n">
         <v>37986</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>0.0912</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>0.09279999999999999</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>0.0859</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>0.037</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>0.6931</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2">
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>38077</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>0.0989</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>0.0929</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>0.0868</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>0.0498</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>0.6716</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="2">
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>38168</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>0.0979</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>0.0906</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>0.0898</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>0.0505</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>0.6713</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="2">
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>38260</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>0.0999</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>0.0893</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>0.08790000000000001</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>0.049</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>0.6739000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="2">
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>38352</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>0.102</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>0.1279</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>0.09180000000000001</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>0.0484</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="n">
         <v>0.6299</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="2">
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>38442</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>0.1083</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>0.127</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>0.0885</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>0.0475</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="n">
         <v>0.6287</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="2">
+    <row r="9">
+      <c r="A9" s="2" t="n">
         <v>38533</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>0.133</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>0.1235</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>0.0895</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>0.0462</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="n">
         <v>0.6079</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="2">
+    <row r="10">
+      <c r="A10" s="2" t="n">
         <v>38625</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="n">
         <v>0.1313</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>0.1252</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>0.08749999999999999</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>0.0472</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="n">
         <v>0.6088</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="2">
+    <row r="11">
+      <c r="A11" s="2" t="n">
         <v>38717</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="n">
         <v>0.1323</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>0.124</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="n">
         <v>0.0864</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>0.0493</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="n">
         <v>0.6081</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="2">
+    <row r="12">
+      <c r="A12" s="2" t="n">
         <v>38807</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="n">
         <v>0.1304</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="n">
         <v>0.129</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="n">
         <v>0.08840000000000001</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="n">
         <v>0.0491</v>
       </c>
-      <c r="F12">
+      <c r="F12" t="n">
         <v>0.6031</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="2">
+    <row r="13">
+      <c r="A13" s="2" t="n">
         <v>38898</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="n">
         <v>0.1328</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="n">
         <v>0.131</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="n">
         <v>0.089</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="n">
         <v>0.0476</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="n">
         <v>0.5997</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="2">
+    <row r="14">
+      <c r="A14" s="2" t="n">
         <v>38990</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="n">
         <v>0.1334</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="n">
         <v>0.1321</v>
       </c>
-      <c r="D14">
+      <c r="D14" t="n">
         <v>0.0919</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="n">
         <v>0.0451</v>
       </c>
-      <c r="F14">
+      <c r="F14" t="n">
         <v>0.5974</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="2">
+    <row r="15">
+      <c r="A15" s="2" t="n">
         <v>39082</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="n">
         <v>0.1303</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="n">
         <v>0.1284</v>
       </c>
-      <c r="D15">
+      <c r="D15" t="n">
         <v>0.111</v>
       </c>
-      <c r="E15">
+      <c r="E15" t="n">
         <v>0.0434</v>
       </c>
-      <c r="F15">
+      <c r="F15" t="n">
         <v>0.5869</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="2">
+    <row r="16">
+      <c r="A16" s="2" t="n">
         <v>39172</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="n">
         <v>0.1306</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="n">
         <v>0.1327</v>
       </c>
-      <c r="D16">
+      <c r="D16" t="n">
         <v>0.1168</v>
       </c>
-      <c r="E16">
+      <c r="E16" t="n">
         <v>0.043</v>
       </c>
-      <c r="F16">
+      <c r="F16" t="n">
         <v>0.5769</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="2">
+    <row r="17">
+      <c r="A17" s="2" t="n">
         <v>39263</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="n">
         <v>0.1319</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="n">
         <v>0.1319</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="n">
         <v>0.1193</v>
       </c>
-      <c r="E17">
+      <c r="E17" t="n">
         <v>0.0451</v>
       </c>
-      <c r="F17">
+      <c r="F17" t="n">
         <v>0.5718</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="2">
+    <row r="18">
+      <c r="A18" s="2" t="n">
         <v>39355</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="n">
         <v>0.131</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="n">
         <v>0.1263</v>
       </c>
-      <c r="D18">
+      <c r="D18" t="n">
         <v>0.1252</v>
       </c>
-      <c r="E18">
+      <c r="E18" t="n">
         <v>0.0452</v>
       </c>
-      <c r="F18">
+      <c r="F18" t="n">
         <v>0.5722</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="2">
+    <row r="19">
+      <c r="A19" s="2" t="n">
         <v>39447</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="n">
         <v>0.1285</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="n">
         <v>0.1291</v>
       </c>
-      <c r="D19">
+      <c r="D19" t="n">
         <v>0.1225</v>
       </c>
-      <c r="E19">
+      <c r="E19" t="n">
         <v>0.0458</v>
       </c>
-      <c r="F19">
+      <c r="F19" t="n">
         <v>0.5742</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="2">
+    <row r="20">
+      <c r="A20" s="2" t="n">
         <v>39538</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="n">
         <v>0.1287</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="n">
         <v>0.1336</v>
       </c>
-      <c r="D20">
+      <c r="D20" t="n">
         <v>0.1227</v>
       </c>
-      <c r="E20">
+      <c r="E20" t="n">
         <v>0.0462</v>
       </c>
-      <c r="F20">
+      <c r="F20" t="n">
         <v>0.5688</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="2">
+    <row r="21">
+      <c r="A21" s="2" t="n">
         <v>39629</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="n">
         <v>0.1269</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="n">
         <v>0.1318</v>
       </c>
-      <c r="D21">
+      <c r="D21" t="n">
         <v>0.1174</v>
       </c>
-      <c r="E21">
+      <c r="E21" t="n">
         <v>0.0481</v>
       </c>
-      <c r="F21">
+      <c r="F21" t="n">
         <v>0.5758</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="2">
+    <row r="22">
+      <c r="A22" s="2" t="n">
         <v>39721</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="n">
         <v>0.1222</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="n">
         <v>0.159</v>
       </c>
-      <c r="D22">
+      <c r="D22" t="n">
         <v>0.1085</v>
       </c>
-      <c r="E22">
+      <c r="E22" t="n">
         <v>0.0463</v>
       </c>
-      <c r="F22">
+      <c r="F22" t="n">
         <v>0.5639999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="2">
+    <row r="23">
+      <c r="A23" s="2" t="n">
         <v>39813</v>
       </c>
-      <c r="B23">
+      <c r="B23" t="n">
         <v>0.1288</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="n">
         <v>0.1528</v>
       </c>
-      <c r="D23">
+      <c r="D23" t="n">
         <v>0.1074</v>
       </c>
-      <c r="E23">
+      <c r="E23" t="n">
         <v>0.0472</v>
       </c>
-      <c r="F23">
+      <c r="F23" t="n">
         <v>0.5639</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="2">
+    <row r="24">
+      <c r="A24" s="2" t="n">
         <v>39903</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="n">
         <v>0.129</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="n">
         <v>0.1518</v>
       </c>
-      <c r="D24">
+      <c r="D24" t="n">
         <v>0.1028</v>
       </c>
-      <c r="E24">
+      <c r="E24" t="n">
         <v>0.0497</v>
       </c>
-      <c r="F24">
+      <c r="F24" t="n">
         <v>0.5668</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="2">
+    <row r="25">
+      <c r="A25" s="2" t="n">
         <v>39994</v>
       </c>
-      <c r="B25">
+      <c r="B25" t="n">
         <v>0.1318</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="n">
         <v>0.1512</v>
       </c>
-      <c r="D25">
+      <c r="D25" t="n">
         <v>0.1059</v>
       </c>
-      <c r="E25">
+      <c r="E25" t="n">
         <v>0.049</v>
       </c>
-      <c r="F25">
+      <c r="F25" t="n">
         <v>0.5620000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="2">
+    <row r="26">
+      <c r="A26" s="2" t="n">
         <v>40086</v>
       </c>
-      <c r="B26">
+      <c r="B26" t="n">
         <v>0.1321</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="n">
         <v>0.1511</v>
       </c>
-      <c r="D26">
+      <c r="D26" t="n">
         <v>0.1074</v>
       </c>
-      <c r="E26">
+      <c r="E26" t="n">
         <v>0.0496</v>
       </c>
-      <c r="F26">
+      <c r="F26" t="n">
         <v>0.5598</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="2">
+    <row r="27">
+      <c r="A27" s="2" t="n">
         <v>40178</v>
       </c>
-      <c r="B27">
+      <c r="B27" t="n">
         <v>0.1328</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="n">
         <v>0.1475</v>
       </c>
-      <c r="D27">
+      <c r="D27" t="n">
         <v>0.1053</v>
       </c>
-      <c r="E27">
+      <c r="E27" t="n">
         <v>0.0552</v>
       </c>
-      <c r="F27">
+      <c r="F27" t="n">
         <v>0.5593</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="2">
+    <row r="28">
+      <c r="A28" s="2" t="n">
         <v>40268</v>
       </c>
-      <c r="B28">
+      <c r="B28" t="n">
         <v>0.1326</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="n">
         <v>0.1484</v>
       </c>
-      <c r="D28">
+      <c r="D28" t="n">
         <v>0.1038</v>
       </c>
-      <c r="E28">
+      <c r="E28" t="n">
         <v>0.0945</v>
       </c>
-      <c r="F28">
+      <c r="F28" t="n">
         <v>0.5207000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="2">
+    <row r="29">
+      <c r="A29" s="2" t="n">
         <v>40359</v>
       </c>
-      <c r="B29">
+      <c r="B29" t="n">
         <v>0.136</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="n">
         <v>0.1404</v>
       </c>
-      <c r="D29">
+      <c r="D29" t="n">
         <v>0.1036</v>
       </c>
-      <c r="E29">
+      <c r="E29" t="n">
         <v>0.0961</v>
       </c>
-      <c r="F29">
+      <c r="F29" t="n">
         <v>0.5239</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="2">
+    <row r="30">
+      <c r="A30" s="2" t="n">
         <v>40451</v>
       </c>
-      <c r="B30">
+      <c r="B30" t="n">
         <v>0.1313</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="n">
         <v>0.1449</v>
       </c>
-      <c r="D30">
+      <c r="D30" t="n">
         <v>0.1066</v>
       </c>
-      <c r="E30">
+      <c r="E30" t="n">
         <v>0.0944</v>
       </c>
-      <c r="F30">
+      <c r="F30" t="n">
         <v>0.5228</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="2">
+    <row r="31">
+      <c r="A31" s="2" t="n">
         <v>40543</v>
       </c>
-      <c r="B31">
+      <c r="B31" t="n">
         <v>0.1314</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="n">
         <v>0.1446</v>
       </c>
-      <c r="D31">
+      <c r="D31" t="n">
         <v>0.1023</v>
       </c>
-      <c r="E31">
+      <c r="E31" t="n">
         <v>0.0977</v>
       </c>
-      <c r="F31">
+      <c r="F31" t="n">
         <v>0.5239</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="2">
+    <row r="32">
+      <c r="A32" s="2" t="n">
         <v>40633</v>
       </c>
-      <c r="B32">
+      <c r="B32" t="n">
         <v>0.1275</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="n">
         <v>0.1514</v>
       </c>
-      <c r="D32">
+      <c r="D32" t="n">
         <v>0.102</v>
       </c>
-      <c r="E32">
+      <c r="E32" t="n">
         <v>0.096</v>
       </c>
-      <c r="F32">
+      <c r="F32" t="n">
         <v>0.5229</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="2">
+    <row r="33">
+      <c r="A33" s="2" t="n">
         <v>40724</v>
       </c>
-      <c r="B33">
+      <c r="B33" t="n">
         <v>0.1254</v>
       </c>
-      <c r="C33">
+      <c r="C33" t="n">
         <v>0.1545</v>
       </c>
-      <c r="D33">
+      <c r="D33" t="n">
         <v>0.1049</v>
       </c>
-      <c r="E33">
+      <c r="E33" t="n">
         <v>0.0953</v>
       </c>
-      <c r="F33">
+      <c r="F33" t="n">
         <v>0.5199</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="2">
+    <row r="34">
+      <c r="A34" s="2" t="n">
         <v>40816</v>
       </c>
-      <c r="B34">
+      <c r="B34" t="n">
         <v>0.1244</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="n">
         <v>0.155</v>
       </c>
-      <c r="D34">
+      <c r="D34" t="n">
         <v>0.1104</v>
       </c>
-      <c r="E34">
+      <c r="E34" t="n">
         <v>0.0969</v>
       </c>
-      <c r="F34">
+      <c r="F34" t="n">
         <v>0.5133</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="2">
+    <row r="35">
+      <c r="A35" s="2" t="n">
         <v>40908</v>
       </c>
-      <c r="B35">
+      <c r="B35" t="n">
         <v>0.1224</v>
       </c>
-      <c r="C35">
+      <c r="C35" t="n">
         <v>0.1527</v>
       </c>
-      <c r="D35">
+      <c r="D35" t="n">
         <v>0.1086</v>
       </c>
-      <c r="E35">
+      <c r="E35" t="n">
         <v>0.0979</v>
       </c>
-      <c r="F35">
+      <c r="F35" t="n">
         <v>0.5183</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="2">
+    <row r="36">
+      <c r="A36" s="2" t="n">
         <v>40999</v>
       </c>
-      <c r="B36">
+      <c r="B36" t="n">
         <v>0.1206</v>
       </c>
-      <c r="C36">
+      <c r="C36" t="n">
         <v>0.1535</v>
       </c>
-      <c r="D36">
+      <c r="D36" t="n">
         <v>0.1093</v>
       </c>
-      <c r="E36">
+      <c r="E36" t="n">
         <v>0.0984</v>
       </c>
-      <c r="F36">
+      <c r="F36" t="n">
         <v>0.5182</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="2">
+    <row r="37">
+      <c r="A37" s="2" t="n">
         <v>41090</v>
       </c>
-      <c r="B37">
+      <c r="B37" t="n">
         <v>0.1193</v>
       </c>
-      <c r="C37">
+      <c r="C37" t="n">
         <v>0.1497</v>
       </c>
-      <c r="D37">
+      <c r="D37" t="n">
         <v>0.1113</v>
       </c>
-      <c r="E37">
+      <c r="E37" t="n">
         <v>0.0974</v>
       </c>
-      <c r="F37">
+      <c r="F37" t="n">
         <v>0.5223</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="2">
+    <row r="38">
+      <c r="A38" s="2" t="n">
         <v>41182</v>
       </c>
-      <c r="B38">
+      <c r="B38" t="n">
         <v>0.1178</v>
       </c>
-      <c r="C38">
+      <c r="C38" t="n">
         <v>0.1504</v>
       </c>
-      <c r="D38">
+      <c r="D38" t="n">
         <v>0.111</v>
       </c>
-      <c r="E38">
+      <c r="E38" t="n">
         <v>0.09909999999999999</v>
       </c>
-      <c r="F38">
+      <c r="F38" t="n">
         <v>0.5217000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="2">
+    <row r="39">
+      <c r="A39" s="2" t="n">
         <v>41274</v>
       </c>
-      <c r="B39">
+      <c r="B39" t="n">
         <v>0.1168</v>
       </c>
-      <c r="C39">
+      <c r="C39" t="n">
         <v>0.1503</v>
       </c>
-      <c r="D39">
+      <c r="D39" t="n">
         <v>0.1041</v>
       </c>
-      <c r="E39">
+      <c r="E39" t="n">
         <v>0.1004</v>
       </c>
-      <c r="F39">
+      <c r="F39" t="n">
         <v>0.5283</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="2">
+    <row r="40">
+      <c r="A40" s="2" t="n">
         <v>41364</v>
       </c>
-      <c r="B40">
+      <c r="B40" t="n">
         <v>0.1158</v>
       </c>
-      <c r="C40">
+      <c r="C40" t="n">
         <v>0.1547</v>
       </c>
-      <c r="D40">
+      <c r="D40" t="n">
         <v>0.1037</v>
       </c>
-      <c r="E40">
+      <c r="E40" t="n">
         <v>0.101</v>
       </c>
-      <c r="F40">
+      <c r="F40" t="n">
         <v>0.5249</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="2">
+    <row r="41">
+      <c r="A41" s="2" t="n">
         <v>41455</v>
       </c>
-      <c r="B41">
+      <c r="B41" t="n">
         <v>0.1136</v>
       </c>
-      <c r="C41">
+      <c r="C41" t="n">
         <v>0.1548</v>
       </c>
-      <c r="D41">
+      <c r="D41" t="n">
         <v>0.1048</v>
       </c>
-      <c r="E41">
+      <c r="E41" t="n">
         <v>0.1021</v>
       </c>
-      <c r="F41">
+      <c r="F41" t="n">
         <v>0.5247000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="2">
+    <row r="42">
+      <c r="A42" s="2" t="n">
         <v>41547</v>
       </c>
-      <c r="B42">
+      <c r="B42" t="n">
         <v>0.1126</v>
       </c>
-      <c r="C42">
+      <c r="C42" t="n">
         <v>0.1557</v>
       </c>
-      <c r="D42">
+      <c r="D42" t="n">
         <v>0.1052</v>
       </c>
-      <c r="E42">
+      <c r="E42" t="n">
         <v>0.1039</v>
       </c>
-      <c r="F42">
+      <c r="F42" t="n">
         <v>0.5225</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="2">
+    <row r="43">
+      <c r="A43" s="2" t="n">
         <v>41639</v>
       </c>
-      <c r="B43">
+      <c r="B43" t="n">
         <v>0.1108</v>
       </c>
-      <c r="C43">
+      <c r="C43" t="n">
         <v>0.1504</v>
       </c>
-      <c r="D43">
+      <c r="D43" t="n">
         <v>0.1041</v>
       </c>
-      <c r="E43">
+      <c r="E43" t="n">
         <v>0.1062</v>
       </c>
-      <c r="F43">
+      <c r="F43" t="n">
         <v>0.5284</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="2">
+    <row r="44">
+      <c r="A44" s="2" t="n">
         <v>41729</v>
       </c>
-      <c r="B44">
+      <c r="B44" t="n">
         <v>0.111</v>
       </c>
-      <c r="C44">
+      <c r="C44" t="n">
         <v>0.1501</v>
       </c>
-      <c r="D44">
+      <c r="D44" t="n">
         <v>0.1037</v>
       </c>
-      <c r="E44">
+      <c r="E44" t="n">
         <v>0.1057</v>
       </c>
-      <c r="F44">
+      <c r="F44" t="n">
         <v>0.5294</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="2">
+    <row r="45">
+      <c r="A45" s="2" t="n">
         <v>41820</v>
       </c>
-      <c r="B45">
+      <c r="B45" t="n">
         <v>0.1086</v>
       </c>
-      <c r="C45">
+      <c r="C45" t="n">
         <v>0.1495</v>
       </c>
-      <c r="D45">
+      <c r="D45" t="n">
         <v>0.1027</v>
       </c>
-      <c r="E45">
+      <c r="E45" t="n">
         <v>0.1073</v>
       </c>
-      <c r="F45">
+      <c r="F45" t="n">
         <v>0.532</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="2">
+    <row r="46">
+      <c r="A46" s="2" t="n">
         <v>41912</v>
       </c>
-      <c r="B46">
+      <c r="B46" t="n">
         <v>0.1123</v>
       </c>
-      <c r="C46">
+      <c r="C46" t="n">
         <v>0.1479</v>
       </c>
-      <c r="D46">
+      <c r="D46" t="n">
         <v>0.1014</v>
       </c>
-      <c r="E46">
+      <c r="E46" t="n">
         <v>0.1092</v>
       </c>
-      <c r="F46">
+      <c r="F46" t="n">
         <v>0.5292</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="2">
+    <row r="47">
+      <c r="A47" s="2" t="n">
         <v>42004</v>
       </c>
-      <c r="B47">
+      <c r="B47" t="n">
         <v>0.1143</v>
       </c>
-      <c r="C47">
+      <c r="C47" t="n">
         <v>0.1507</v>
       </c>
-      <c r="D47">
+      <c r="D47" t="n">
         <v>0.0985</v>
       </c>
-      <c r="E47">
+      <c r="E47" t="n">
         <v>0.1113</v>
       </c>
-      <c r="F47">
+      <c r="F47" t="n">
         <v>0.5251</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="2">
+    <row r="48">
+      <c r="A48" s="2" t="n">
         <v>42094</v>
       </c>
-      <c r="B48">
+      <c r="B48" t="n">
         <v>0.114</v>
       </c>
-      <c r="C48">
+      <c r="C48" t="n">
         <v>0.1494</v>
       </c>
-      <c r="D48">
+      <c r="D48" t="n">
         <v>0.09520000000000001</v>
       </c>
-      <c r="E48">
+      <c r="E48" t="n">
         <v>0.112</v>
       </c>
-      <c r="F48">
+      <c r="F48" t="n">
         <v>0.5295</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="2">
+    <row r="49">
+      <c r="A49" s="2" t="n">
         <v>42185</v>
       </c>
-      <c r="B49">
+      <c r="B49" t="n">
         <v>0.1147</v>
       </c>
-      <c r="C49">
+      <c r="C49" t="n">
         <v>0.1408</v>
       </c>
-      <c r="D49">
+      <c r="D49" t="n">
         <v>0.0954</v>
       </c>
-      <c r="E49">
+      <c r="E49" t="n">
         <v>0.111</v>
       </c>
-      <c r="F49">
+      <c r="F49" t="n">
         <v>0.5381</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="2">
+    <row r="50">
+      <c r="A50" s="2" t="n">
         <v>42277</v>
       </c>
-      <c r="B50">
+      <c r="B50" t="n">
         <v>0.115</v>
       </c>
-      <c r="C50">
+      <c r="C50" t="n">
         <v>0.139</v>
       </c>
-      <c r="D50">
+      <c r="D50" t="n">
         <v>0.09520000000000001</v>
       </c>
-      <c r="E50">
+      <c r="E50" t="n">
         <v>0.1123</v>
       </c>
-      <c r="F50">
+      <c r="F50" t="n">
         <v>0.5385</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="2">
+    <row r="51">
+      <c r="A51" s="2" t="n">
         <v>42369</v>
       </c>
-      <c r="B51">
+      <c r="B51" t="n">
         <v>0.1153</v>
       </c>
-      <c r="C51">
+      <c r="C51" t="n">
         <v>0.1347</v>
       </c>
-      <c r="D51">
+      <c r="D51" t="n">
         <v>0.0914</v>
       </c>
-      <c r="E51">
+      <c r="E51" t="n">
         <v>0.1133</v>
       </c>
-      <c r="F51">
+      <c r="F51" t="n">
         <v>0.5453</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="2">
+    <row r="52">
+      <c r="A52" s="2" t="n">
         <v>42460</v>
       </c>
-      <c r="B52">
+      <c r="B52" t="n">
         <v>0.1138</v>
       </c>
-      <c r="C52">
+      <c r="C52" t="n">
         <v>0.1387</v>
       </c>
-      <c r="D52">
+      <c r="D52" t="n">
         <v>0.0924</v>
       </c>
-      <c r="E52">
+      <c r="E52" t="n">
         <v>0.1148</v>
       </c>
-      <c r="F52">
+      <c r="F52" t="n">
         <v>0.5403</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="2">
+    <row r="53">
+      <c r="A53" s="2" t="n">
         <v>42551</v>
       </c>
-      <c r="B53">
+      <c r="B53" t="n">
         <v>0.1122</v>
       </c>
-      <c r="C53">
+      <c r="C53" t="n">
         <v>0.1388</v>
       </c>
-      <c r="D53">
+      <c r="D53" t="n">
         <v>0.0924</v>
       </c>
-      <c r="E53">
+      <c r="E53" t="n">
         <v>0.115</v>
       </c>
-      <c r="F53">
+      <c r="F53" t="n">
         <v>0.5416</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="2">
+    <row r="54">
+      <c r="A54" s="2" t="n">
         <v>42643</v>
       </c>
-      <c r="B54">
+      <c r="B54" t="n">
         <v>0.1107</v>
       </c>
-      <c r="C54">
+      <c r="C54" t="n">
         <v>0.1413</v>
       </c>
-      <c r="D54">
+      <c r="D54" t="n">
         <v>0.0905</v>
       </c>
-      <c r="E54">
+      <c r="E54" t="n">
         <v>0.1161</v>
       </c>
-      <c r="F54">
+      <c r="F54" t="n">
         <v>0.5413</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="2">
+    <row r="55">
+      <c r="A55" s="2" t="n">
         <v>42735</v>
       </c>
-      <c r="B55">
+      <c r="B55" t="n">
         <v>0.1119</v>
       </c>
-      <c r="C55">
+      <c r="C55" t="n">
         <v>0.139</v>
       </c>
-      <c r="D55">
+      <c r="D55" t="n">
         <v>0.0901</v>
       </c>
-      <c r="E55">
+      <c r="E55" t="n">
         <v>0.1153</v>
       </c>
-      <c r="F55">
+      <c r="F55" t="n">
         <v>0.5438</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="2">
+    <row r="56">
+      <c r="A56" s="2" t="n">
         <v>42825</v>
       </c>
-      <c r="B56">
+      <c r="B56" t="n">
         <v>0.1126</v>
       </c>
-      <c r="C56">
+      <c r="C56" t="n">
         <v>0.1411</v>
       </c>
-      <c r="D56">
+      <c r="D56" t="n">
         <v>0.09030000000000001</v>
       </c>
-      <c r="E56">
+      <c r="E56" t="n">
         <v>0.1154</v>
       </c>
-      <c r="F56">
+      <c r="F56" t="n">
         <v>0.5406</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="2">
+    <row r="57">
+      <c r="A57" s="2" t="n">
         <v>42916</v>
       </c>
-      <c r="B57">
+      <c r="B57" t="n">
         <v>0.1118</v>
       </c>
-      <c r="C57">
+      <c r="C57" t="n">
         <v>0.141</v>
       </c>
-      <c r="D57">
+      <c r="D57" t="n">
         <v>0.09180000000000001</v>
       </c>
-      <c r="E57">
+      <c r="E57" t="n">
         <v>0.1135</v>
       </c>
-      <c r="F57">
+      <c r="F57" t="n">
         <v>0.5417999999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="2">
+    <row r="58">
+      <c r="A58" s="2" t="n">
         <v>43008</v>
       </c>
-      <c r="B58">
+      <c r="B58" t="n">
         <v>0.1118</v>
       </c>
-      <c r="C58">
+      <c r="C58" t="n">
         <v>0.1396</v>
       </c>
-      <c r="D58">
+      <c r="D58" t="n">
         <v>0.0912</v>
       </c>
-      <c r="E58">
+      <c r="E58" t="n">
         <v>0.1127</v>
       </c>
-      <c r="F58">
+      <c r="F58" t="n">
         <v>0.5447</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="2">
+    <row r="59">
+      <c r="A59" s="2" t="n">
         <v>43100</v>
       </c>
-      <c r="B59">
+      <c r="B59" t="n">
         <v>0.1125</v>
       </c>
-      <c r="C59">
+      <c r="C59" t="n">
         <v>0.1375</v>
       </c>
-      <c r="D59">
+      <c r="D59" t="n">
         <v>0.08890000000000001</v>
       </c>
-      <c r="E59">
+      <c r="E59" t="n">
         <v>0.1122</v>
       </c>
-      <c r="F59">
+      <c r="F59" t="n">
         <v>0.5488</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="2">
+    <row r="60">
+      <c r="A60" s="2" t="n">
         <v>43190</v>
       </c>
-      <c r="B60">
+      <c r="B60" t="n">
         <v>0.1126</v>
       </c>
-      <c r="C60">
+      <c r="C60" t="n">
         <v>0.1402</v>
       </c>
-      <c r="D60">
+      <c r="D60" t="n">
         <v>0.0897</v>
       </c>
-      <c r="E60">
+      <c r="E60" t="n">
         <v>0.1095</v>
       </c>
-      <c r="F60">
+      <c r="F60" t="n">
         <v>0.548</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="2">
+    <row r="61">
+      <c r="A61" s="2" t="n">
         <v>43281</v>
       </c>
-      <c r="B61">
+      <c r="B61" t="n">
         <v>0.1115</v>
       </c>
-      <c r="C61">
+      <c r="C61" t="n">
         <v>0.1374</v>
       </c>
-      <c r="D61">
+      <c r="D61" t="n">
         <v>0.0886</v>
       </c>
-      <c r="E61">
+      <c r="E61" t="n">
         <v>0.1062</v>
       </c>
-      <c r="F61">
+      <c r="F61" t="n">
         <v>0.5563</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="2">
+    <row r="62">
+      <c r="A62" s="2" t="n">
         <v>43373</v>
       </c>
-      <c r="B62">
+      <c r="B62" t="n">
         <v>0.1131</v>
       </c>
-      <c r="C62">
+      <c r="C62" t="n">
         <v>0.1381</v>
       </c>
-      <c r="D62">
+      <c r="D62" t="n">
         <v>0.089</v>
       </c>
-      <c r="E62">
+      <c r="E62" t="n">
         <v>0.1048</v>
       </c>
-      <c r="F62">
+      <c r="F62" t="n">
         <v>0.555</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="2">
+    <row r="63">
+      <c r="A63" s="2" t="n">
         <v>43465</v>
       </c>
-      <c r="B63">
+      <c r="B63" t="n">
         <v>0.1105</v>
       </c>
-      <c r="C63">
+      <c r="C63" t="n">
         <v>0.1375</v>
       </c>
-      <c r="D63">
+      <c r="D63" t="n">
         <v>0.0872</v>
       </c>
-      <c r="E63">
+      <c r="E63" t="n">
         <v>0.1047</v>
       </c>
-      <c r="F63">
+      <c r="F63" t="n">
         <v>0.5602</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="2">
+    <row r="64">
+      <c r="A64" s="2" t="n">
         <v>43555</v>
       </c>
-      <c r="B64">
+      <c r="B64" t="n">
         <v>0.1087</v>
       </c>
-      <c r="C64">
+      <c r="C64" t="n">
         <v>0.1404</v>
       </c>
-      <c r="D64">
+      <c r="D64" t="n">
         <v>0.0876</v>
       </c>
-      <c r="E64">
+      <c r="E64" t="n">
         <v>0.1022</v>
       </c>
-      <c r="F64">
+      <c r="F64" t="n">
         <v>0.5611</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="2">
+    <row r="65">
+      <c r="A65" s="2" t="n">
         <v>43646</v>
       </c>
-      <c r="B65">
+      <c r="B65" t="n">
         <v>0.1085</v>
       </c>
-      <c r="C65">
+      <c r="C65" t="n">
         <v>0.1426</v>
       </c>
-      <c r="D65">
+      <c r="D65" t="n">
         <v>0.08840000000000001</v>
       </c>
-      <c r="E65">
+      <c r="E65" t="n">
         <v>0.1029</v>
       </c>
-      <c r="F65">
+      <c r="F65" t="n">
         <v>0.5576</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="2">
+    <row r="66">
+      <c r="A66" s="2" t="n">
         <v>43738</v>
       </c>
-      <c r="B66">
+      <c r="B66" t="n">
         <v>0.1084</v>
       </c>
-      <c r="C66">
+      <c r="C66" t="n">
         <v>0.1415</v>
       </c>
-      <c r="D66">
+      <c r="D66" t="n">
         <v>0.08799999999999999</v>
       </c>
-      <c r="E66">
+      <c r="E66" t="n">
         <v>0.1021</v>
       </c>
-      <c r="F66">
+      <c r="F66" t="n">
         <v>0.5600000000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="2">
+    <row r="67">
+      <c r="A67" s="2" t="n">
         <v>43830</v>
       </c>
-      <c r="B67">
+      <c r="B67" t="n">
         <v>0.1096</v>
       </c>
-      <c r="C67">
+      <c r="C67" t="n">
         <v>0.1382</v>
       </c>
-      <c r="D67">
+      <c r="D67" t="n">
         <v>0.08599999999999999</v>
       </c>
-      <c r="E67">
+      <c r="E67" t="n">
         <v>0.1013</v>
       </c>
-      <c r="F67">
+      <c r="F67" t="n">
         <v>0.5649</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="2">
+    <row r="68">
+      <c r="A68" s="2" t="n">
         <v>43921</v>
       </c>
-      <c r="B68">
+      <c r="B68" t="n">
         <v>0.1102</v>
       </c>
-      <c r="C68">
+      <c r="C68" t="n">
         <v>0.146</v>
       </c>
-      <c r="D68">
+      <c r="D68" t="n">
         <v>0.0886</v>
       </c>
-      <c r="E68">
+      <c r="E68" t="n">
         <v>0.09569999999999999</v>
       </c>
-      <c r="F68">
+      <c r="F68" t="n">
         <v>0.5595</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="2">
+    <row r="69">
+      <c r="A69" s="2" t="n">
         <v>44012</v>
       </c>
-      <c r="B69">
+      <c r="B69" t="n">
         <v>0.1123</v>
       </c>
-      <c r="C69">
+      <c r="C69" t="n">
         <v>0.1465</v>
       </c>
-      <c r="D69">
+      <c r="D69" t="n">
         <v>0.0849</v>
       </c>
-      <c r="E69">
+      <c r="E69" t="n">
         <v>0.0935</v>
       </c>
-      <c r="F69">
+      <c r="F69" t="n">
         <v>0.5629</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="2">
+    <row r="70">
+      <c r="A70" s="2" t="n">
         <v>44104</v>
       </c>
-      <c r="B70">
+      <c r="B70" t="n">
         <v>0.1117</v>
       </c>
-      <c r="C70">
+      <c r="C70" t="n">
         <v>0.1486</v>
       </c>
-      <c r="D70">
+      <c r="D70" t="n">
         <v>0.0854</v>
       </c>
-      <c r="E70">
+      <c r="E70" t="n">
         <v>0.0906</v>
       </c>
-      <c r="F70">
+      <c r="F70" t="n">
         <v>0.5636</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="2">
+    <row r="71">
+      <c r="A71" s="2" t="n">
         <v>44196</v>
       </c>
-      <c r="B71">
+      <c r="B71" t="n">
         <v>0.1134</v>
       </c>
-      <c r="C71">
+      <c r="C71" t="n">
         <v>0.1519</v>
       </c>
-      <c r="D71">
+      <c r="D71" t="n">
         <v>0.0834</v>
       </c>
-      <c r="E71">
+      <c r="E71" t="n">
         <v>0.0888</v>
       </c>
-      <c r="F71">
+      <c r="F71" t="n">
         <v>0.5624</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
-      <c r="A72" s="2">
+    <row r="72">
+      <c r="A72" s="2" t="n">
         <v>44286</v>
       </c>
-      <c r="B72">
+      <c r="B72" t="n">
         <v>0.1128</v>
       </c>
-      <c r="C72">
+      <c r="C72" t="n">
         <v>0.1562</v>
       </c>
-      <c r="D72">
+      <c r="D72" t="n">
         <v>0.08210000000000001</v>
       </c>
-      <c r="E72">
+      <c r="E72" t="n">
         <v>0.0864</v>
       </c>
-      <c r="F72">
+      <c r="F72" t="n">
         <v>0.5625</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
-      <c r="A73" s="2">
+    <row r="73">
+      <c r="A73" s="2" t="n">
         <v>44377</v>
       </c>
-      <c r="B73">
+      <c r="B73" t="n">
         <v>0.1132</v>
       </c>
-      <c r="C73">
+      <c r="C73" t="n">
         <v>0.1537</v>
       </c>
-      <c r="D73">
+      <c r="D73" t="n">
         <v>0.08160000000000001</v>
       </c>
-      <c r="E73">
+      <c r="E73" t="n">
         <v>0.0856</v>
       </c>
-      <c r="F73">
+      <c r="F73" t="n">
         <v>0.5658</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
-      <c r="A74" s="2">
+    <row r="74">
+      <c r="A74" s="2" t="n">
         <v>44469</v>
       </c>
-      <c r="B74">
+      <c r="B74" t="n">
         <v>0.1134</v>
       </c>
-      <c r="C74">
+      <c r="C74" t="n">
         <v>0.1554</v>
       </c>
-      <c r="D74">
+      <c r="D74" t="n">
         <v>0.0805</v>
       </c>
-      <c r="E74">
+      <c r="E74" t="n">
         <v>0.0844</v>
       </c>
-      <c r="F74">
+      <c r="F74" t="n">
         <v>0.5664</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
-      <c r="A75" s="2">
+    <row r="75">
+      <c r="A75" s="2" t="n">
         <v>44561</v>
       </c>
-      <c r="B75">
+      <c r="B75" t="n">
         <v>0.1168</v>
       </c>
-      <c r="C75">
+      <c r="C75" t="n">
         <v>0.1533</v>
       </c>
-      <c r="D75">
+      <c r="D75" t="n">
         <v>0.0774</v>
       </c>
-      <c r="E75">
+      <c r="E75" t="n">
         <v>0.0825</v>
       </c>
-      <c r="F75">
+      <c r="F75" t="n">
         <v>0.5702</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
-      <c r="A76" s="2">
+    <row r="76">
+      <c r="A76" s="2" t="n">
         <v>44651</v>
       </c>
-      <c r="B76">
+      <c r="B76" t="n">
         <v>0.1148</v>
       </c>
-      <c r="C76">
+      <c r="C76" t="n">
         <v>0.1587</v>
       </c>
-      <c r="D76">
+      <c r="D76" t="n">
         <v>0.0784</v>
       </c>
-      <c r="E76">
+      <c r="E76" t="n">
         <v>0.0805</v>
       </c>
-      <c r="F76">
+      <c r="F76" t="n">
         <v>0.5675</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
-      <c r="A77" s="2">
+    <row r="77">
+      <c r="A77" s="2" t="n">
         <v>44742</v>
       </c>
-      <c r="B77">
+      <c r="B77" t="n">
         <v>0.1126</v>
       </c>
-      <c r="C77">
+      <c r="C77" t="n">
         <v>0.1561</v>
       </c>
-      <c r="D77">
+      <c r="D77" t="n">
         <v>0.0794</v>
       </c>
-      <c r="E77">
+      <c r="E77" t="n">
         <v>0.0791</v>
       </c>
-      <c r="F77">
+      <c r="F77" t="n">
         <v>0.5728</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="2">
+    <row r="78">
+      <c r="A78" s="2" t="n">
         <v>44834</v>
       </c>
-      <c r="B78">
+      <c r="B78" t="n">
         <v>0.1114</v>
       </c>
-      <c r="C78">
+      <c r="C78" t="n">
         <v>0.153</v>
       </c>
-      <c r="D78">
+      <c r="D78" t="n">
         <v>0.0793</v>
       </c>
-      <c r="E78">
+      <c r="E78" t="n">
         <v>0.07920000000000001</v>
       </c>
-      <c r="F78">
+      <c r="F78" t="n">
         <v>0.5770999999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
-      <c r="A79" s="2">
+    <row r="79">
+      <c r="A79" s="2" t="n">
         <v>44926</v>
       </c>
-      <c r="B79">
+      <c r="B79" t="n">
         <v>0.1115</v>
       </c>
-      <c r="C79">
+      <c r="C79" t="n">
         <v>0.1476</v>
       </c>
-      <c r="D79">
+      <c r="D79" t="n">
         <v>0.0814</v>
       </c>
-      <c r="E79">
+      <c r="E79" t="n">
         <v>0.07920000000000001</v>
       </c>
-      <c r="F79">
+      <c r="F79" t="n">
         <v>0.5804</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
-      <c r="A80" s="2">
+    <row r="80">
+      <c r="A80" s="2" t="n">
         <v>45016</v>
       </c>
-      <c r="B80">
+      <c r="B80" t="n">
         <v>0.1154</v>
       </c>
-      <c r="C80">
+      <c r="C80" t="n">
         <v>0.1498</v>
       </c>
-      <c r="D80">
+      <c r="D80" t="n">
         <v>0.0789</v>
       </c>
-      <c r="E80">
+      <c r="E80" t="n">
         <v>0.0774</v>
       </c>
-      <c r="F80">
+      <c r="F80" t="n">
         <v>0.5785</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
-      <c r="A81" s="2">
+    <row r="81">
+      <c r="A81" s="2" t="n">
         <v>45107</v>
       </c>
-      <c r="B81">
+      <c r="B81" t="n">
         <v>0.1135</v>
       </c>
-      <c r="C81">
+      <c r="C81" t="n">
         <v>0.1567</v>
       </c>
-      <c r="D81">
+      <c r="D81" t="n">
         <v>0.07920000000000001</v>
       </c>
-      <c r="E81">
+      <c r="E81" t="n">
         <v>0.07729999999999999</v>
       </c>
-      <c r="F81">
+      <c r="F81" t="n">
         <v>0.5733</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
-      <c r="A82" s="2">
+    <row r="82">
+      <c r="A82" s="2" t="n">
         <v>45199</v>
       </c>
-      <c r="B82">
+      <c r="B82" t="n">
         <v>0.1142</v>
       </c>
-      <c r="C82">
+      <c r="C82" t="n">
         <v>0.1568</v>
       </c>
-      <c r="D82">
+      <c r="D82" t="n">
         <v>0.0767</v>
       </c>
-      <c r="E82">
+      <c r="E82" t="n">
         <v>0.0789</v>
       </c>
-      <c r="F82">
+      <c r="F82" t="n">
         <v>0.5734</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
-      <c r="A83" s="2">
+    <row r="83">
+      <c r="A83" s="2" t="n">
         <v>45291</v>
       </c>
-      <c r="B83">
+      <c r="B83" t="n">
         <v>0.1163</v>
       </c>
-      <c r="C83">
+      <c r="C83" t="n">
         <v>0.1554</v>
       </c>
-      <c r="D83">
+      <c r="D83" t="n">
         <v>0.0771</v>
       </c>
-      <c r="E83">
+      <c r="E83" t="n">
         <v>0.0793</v>
       </c>
-      <c r="F83">
+      <c r="F83" t="n">
         <v>0.5719</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
-      <c r="A84" s="2">
+    <row r="84">
+      <c r="A84" s="2" t="n">
         <v>45382</v>
       </c>
-      <c r="B84">
+      <c r="B84" t="n">
         <v>0.1151</v>
       </c>
-      <c r="C84">
+      <c r="C84" t="n">
         <v>0.1581</v>
       </c>
-      <c r="D84">
+      <c r="D84" t="n">
         <v>0.0767</v>
       </c>
-      <c r="E84">
+      <c r="E84" t="n">
         <v>0.07870000000000001</v>
       </c>
-      <c r="F84">
+      <c r="F84" t="n">
         <v>0.5715</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/datasets/bank_asset_percentage.xlsx
+++ b/datasets/bank_asset_percentage.xlsx
@@ -1,40 +1,66 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Bank of America</t>
+  </si>
+  <si>
+    <t>Chase</t>
+  </si>
+  <si>
+    <t>Citibank</t>
+  </si>
+  <si>
+    <t>Wells Fargo</t>
+  </si>
+  <si>
+    <t>Other Banks</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,94 +75,36 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -424,1712 +392,1694 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Bank of America</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Chase</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Citibank</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Wells Fargo</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Other Banks</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2">
         <v>37894</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>0.09370000000000001</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>0.09569999999999999</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>0.0832</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>0.0337</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>0.6936</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+    <row r="3" spans="1:6">
+      <c r="A3" s="2">
         <v>37986</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>0.0912</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>0.09279999999999999</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>0.0859</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>0.037</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>0.6931</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+    <row r="4" spans="1:6">
+      <c r="A4" s="2">
         <v>38077</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>0.0989</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>0.0929</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>0.0868</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>0.0498</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>0.6716</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+    <row r="5" spans="1:6">
+      <c r="A5" s="2">
         <v>38168</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>0.0979</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>0.0906</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>0.0898</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>0.0505</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>0.6713</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
+    <row r="6" spans="1:6">
+      <c r="A6" s="2">
         <v>38260</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>0.0999</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>0.0893</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>0.08790000000000001</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>0.049</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>0.6739000000000001</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
+    <row r="7" spans="1:6">
+      <c r="A7" s="2">
         <v>38352</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>0.102</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>0.1279</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>0.09180000000000001</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>0.0484</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>0.6299</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
+    <row r="8" spans="1:6">
+      <c r="A8" s="2">
         <v>38442</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>0.1083</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>0.127</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>0.0885</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>0.0475</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>0.6287</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
+    <row r="9" spans="1:6">
+      <c r="A9" s="2">
         <v>38533</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>0.133</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>0.1235</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>0.0895</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>0.0462</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>0.6079</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
+    <row r="10" spans="1:6">
+      <c r="A10" s="2">
         <v>38625</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>0.1313</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>0.1252</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>0.08749999999999999</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>0.0472</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>0.6088</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
+    <row r="11" spans="1:6">
+      <c r="A11" s="2">
         <v>38717</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>0.1323</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>0.124</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>0.0864</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>0.0493</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>0.6081</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
+    <row r="12" spans="1:6">
+      <c r="A12" s="2">
         <v>38807</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>0.1304</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>0.129</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>0.08840000000000001</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>0.0491</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>0.6031</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
+    <row r="13" spans="1:6">
+      <c r="A13" s="2">
         <v>38898</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>0.1328</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>0.131</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>0.089</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>0.0476</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>0.5997</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
+    <row r="14" spans="1:6">
+      <c r="A14" s="2">
         <v>38990</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>0.1334</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>0.1321</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>0.0919</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>0.0451</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>0.5974</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
+    <row r="15" spans="1:6">
+      <c r="A15" s="2">
         <v>39082</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>0.1303</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>0.1284</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>0.111</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>0.0434</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>0.5869</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
+    <row r="16" spans="1:6">
+      <c r="A16" s="2">
         <v>39172</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>0.1306</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>0.1327</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>0.1168</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>0.043</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>0.5769</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
+    <row r="17" spans="1:6">
+      <c r="A17" s="2">
         <v>39263</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>0.1319</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>0.1319</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>0.1193</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>0.0451</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>0.5718</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
+    <row r="18" spans="1:6">
+      <c r="A18" s="2">
         <v>39355</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>0.131</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>0.1263</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>0.1252</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>0.0452</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>0.5722</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
+    <row r="19" spans="1:6">
+      <c r="A19" s="2">
         <v>39447</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>0.1285</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>0.1291</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>0.1225</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>0.0458</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>0.5742</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
+    <row r="20" spans="1:6">
+      <c r="A20" s="2">
         <v>39538</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>0.1287</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>0.1336</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>0.1227</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>0.0462</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>0.5688</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
+    <row r="21" spans="1:6">
+      <c r="A21" s="2">
         <v>39629</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>0.1269</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>0.1318</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>0.1174</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>0.0481</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>0.5758</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
+    <row r="22" spans="1:6">
+      <c r="A22" s="2">
         <v>39721</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>0.1222</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>0.159</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>0.1085</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>0.0463</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>0.5639999999999999</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
+    <row r="23" spans="1:6">
+      <c r="A23" s="2">
         <v>39813</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>0.1288</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>0.1528</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>0.1074</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>0.0472</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>0.5639</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
+    <row r="24" spans="1:6">
+      <c r="A24" s="2">
         <v>39903</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>0.129</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>0.1518</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>0.1028</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>0.0497</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>0.5668</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
+    <row r="25" spans="1:6">
+      <c r="A25" s="2">
         <v>39994</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>0.1318</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>0.1512</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>0.1059</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>0.049</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>0.5620000000000001</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
+    <row r="26" spans="1:6">
+      <c r="A26" s="2">
         <v>40086</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>0.1321</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>0.1511</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>0.1074</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>0.0496</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>0.5598</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
+    <row r="27" spans="1:6">
+      <c r="A27" s="2">
         <v>40178</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>0.1328</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>0.1475</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>0.1053</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>0.0552</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>0.5593</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
+    <row r="28" spans="1:6">
+      <c r="A28" s="2">
         <v>40268</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>0.1326</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>0.1484</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>0.1038</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>0.0945</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>0.5207000000000001</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
+    <row r="29" spans="1:6">
+      <c r="A29" s="2">
         <v>40359</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>0.136</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>0.1404</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>0.1036</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>0.0961</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>0.5239</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
+    <row r="30" spans="1:6">
+      <c r="A30" s="2">
         <v>40451</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>0.1313</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>0.1449</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>0.1066</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>0.0944</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>0.5228</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
+    <row r="31" spans="1:6">
+      <c r="A31" s="2">
         <v>40543</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>0.1314</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>0.1446</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>0.1023</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>0.0977</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>0.5239</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
+    <row r="32" spans="1:6">
+      <c r="A32" s="2">
         <v>40633</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>0.1275</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>0.1514</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>0.102</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>0.096</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>0.5229</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
+    <row r="33" spans="1:6">
+      <c r="A33" s="2">
         <v>40724</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>0.1254</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>0.1545</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>0.1049</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>0.0953</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>0.5199</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
+    <row r="34" spans="1:6">
+      <c r="A34" s="2">
         <v>40816</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>0.1244</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>0.155</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>0.1104</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>0.0969</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>0.5133</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
+    <row r="35" spans="1:6">
+      <c r="A35" s="2">
         <v>40908</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>0.1224</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>0.1527</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>0.1086</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>0.0979</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>0.5183</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
+    <row r="36" spans="1:6">
+      <c r="A36" s="2">
         <v>40999</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>0.1206</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>0.1535</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>0.1093</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>0.0984</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>0.5182</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
+    <row r="37" spans="1:6">
+      <c r="A37" s="2">
         <v>41090</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>0.1193</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>0.1497</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>0.1113</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>0.0974</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>0.5223</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
+    <row r="38" spans="1:6">
+      <c r="A38" s="2">
         <v>41182</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>0.1178</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>0.1504</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>0.111</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>0.09909999999999999</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>0.5217000000000001</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
+    <row r="39" spans="1:6">
+      <c r="A39" s="2">
         <v>41274</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>0.1168</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>0.1503</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>0.1041</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>0.1004</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>0.5283</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
+    <row r="40" spans="1:6">
+      <c r="A40" s="2">
         <v>41364</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>0.1158</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>0.1547</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>0.1037</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
         <v>0.101</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40">
         <v>0.5249</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
+    <row r="41" spans="1:6">
+      <c r="A41" s="2">
         <v>41455</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>0.1136</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>0.1548</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>0.1048</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
         <v>0.1021</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>0.5247000000000001</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
+    <row r="42" spans="1:6">
+      <c r="A42" s="2">
         <v>41547</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>0.1126</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>0.1557</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>0.1052</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
         <v>0.1039</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42">
         <v>0.5225</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
+    <row r="43" spans="1:6">
+      <c r="A43" s="2">
         <v>41639</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>0.1108</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>0.1504</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>0.1041</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
         <v>0.1062</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43">
         <v>0.5284</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
+    <row r="44" spans="1:6">
+      <c r="A44" s="2">
         <v>41729</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>0.111</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>0.1501</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>0.1037</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
         <v>0.1057</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>0.5294</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
+    <row r="45" spans="1:6">
+      <c r="A45" s="2">
         <v>41820</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>0.1086</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>0.1495</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>0.1027</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
         <v>0.1073</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>0.532</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
+    <row r="46" spans="1:6">
+      <c r="A46" s="2">
         <v>41912</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>0.1123</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>0.1479</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>0.1014</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
         <v>0.1092</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46">
         <v>0.5292</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
+    <row r="47" spans="1:6">
+      <c r="A47" s="2">
         <v>42004</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>0.1143</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>0.1507</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>0.0985</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
         <v>0.1113</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47">
         <v>0.5251</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
+    <row r="48" spans="1:6">
+      <c r="A48" s="2">
         <v>42094</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>0.114</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>0.1494</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>0.09520000000000001</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
         <v>0.112</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48">
         <v>0.5295</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
+    <row r="49" spans="1:6">
+      <c r="A49" s="2">
         <v>42185</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>0.1147</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>0.1408</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>0.0954</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
         <v>0.111</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49">
         <v>0.5381</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
+    <row r="50" spans="1:6">
+      <c r="A50" s="2">
         <v>42277</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>0.115</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>0.139</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50">
         <v>0.09520000000000001</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E50">
         <v>0.1123</v>
       </c>
-      <c r="F50" t="n">
+      <c r="F50">
         <v>0.5385</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
+    <row r="51" spans="1:6">
+      <c r="A51" s="2">
         <v>42369</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>0.1153</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>0.1347</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51">
         <v>0.0914</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E51">
         <v>0.1133</v>
       </c>
-      <c r="F51" t="n">
+      <c r="F51">
         <v>0.5453</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
+    <row r="52" spans="1:6">
+      <c r="A52" s="2">
         <v>42460</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>0.1138</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>0.1387</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52">
         <v>0.0924</v>
       </c>
-      <c r="E52" t="n">
+      <c r="E52">
         <v>0.1148</v>
       </c>
-      <c r="F52" t="n">
+      <c r="F52">
         <v>0.5403</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
+    <row r="53" spans="1:6">
+      <c r="A53" s="2">
         <v>42551</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>0.1122</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>0.1388</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53">
         <v>0.0924</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E53">
         <v>0.115</v>
       </c>
-      <c r="F53" t="n">
+      <c r="F53">
         <v>0.5416</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
+    <row r="54" spans="1:6">
+      <c r="A54" s="2">
         <v>42643</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>0.1107</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>0.1413</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54">
         <v>0.0905</v>
       </c>
-      <c r="E54" t="n">
+      <c r="E54">
         <v>0.1161</v>
       </c>
-      <c r="F54" t="n">
+      <c r="F54">
         <v>0.5413</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
+    <row r="55" spans="1:6">
+      <c r="A55" s="2">
         <v>42735</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>0.1119</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55">
         <v>0.139</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D55">
         <v>0.0901</v>
       </c>
-      <c r="E55" t="n">
+      <c r="E55">
         <v>0.1153</v>
       </c>
-      <c r="F55" t="n">
+      <c r="F55">
         <v>0.5438</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
+    <row r="56" spans="1:6">
+      <c r="A56" s="2">
         <v>42825</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>0.1126</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56">
         <v>0.1411</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D56">
         <v>0.09030000000000001</v>
       </c>
-      <c r="E56" t="n">
+      <c r="E56">
         <v>0.1154</v>
       </c>
-      <c r="F56" t="n">
+      <c r="F56">
         <v>0.5406</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
+    <row r="57" spans="1:6">
+      <c r="A57" s="2">
         <v>42916</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>0.1118</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57">
         <v>0.141</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D57">
         <v>0.09180000000000001</v>
       </c>
-      <c r="E57" t="n">
+      <c r="E57">
         <v>0.1135</v>
       </c>
-      <c r="F57" t="n">
+      <c r="F57">
         <v>0.5417999999999999</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
+    <row r="58" spans="1:6">
+      <c r="A58" s="2">
         <v>43008</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>0.1118</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58">
         <v>0.1396</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D58">
         <v>0.0912</v>
       </c>
-      <c r="E58" t="n">
+      <c r="E58">
         <v>0.1127</v>
       </c>
-      <c r="F58" t="n">
+      <c r="F58">
         <v>0.5447</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
+    <row r="59" spans="1:6">
+      <c r="A59" s="2">
         <v>43100</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>0.1125</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59">
         <v>0.1375</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D59">
         <v>0.08890000000000001</v>
       </c>
-      <c r="E59" t="n">
+      <c r="E59">
         <v>0.1122</v>
       </c>
-      <c r="F59" t="n">
+      <c r="F59">
         <v>0.5488</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
+    <row r="60" spans="1:6">
+      <c r="A60" s="2">
         <v>43190</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>0.1126</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60">
         <v>0.1402</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D60">
         <v>0.0897</v>
       </c>
-      <c r="E60" t="n">
+      <c r="E60">
         <v>0.1095</v>
       </c>
-      <c r="F60" t="n">
+      <c r="F60">
         <v>0.548</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
+    <row r="61" spans="1:6">
+      <c r="A61" s="2">
         <v>43281</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>0.1115</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61">
         <v>0.1374</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D61">
         <v>0.0886</v>
       </c>
-      <c r="E61" t="n">
+      <c r="E61">
         <v>0.1062</v>
       </c>
-      <c r="F61" t="n">
+      <c r="F61">
         <v>0.5563</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
+    <row r="62" spans="1:6">
+      <c r="A62" s="2">
         <v>43373</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>0.1131</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62">
         <v>0.1381</v>
       </c>
-      <c r="D62" t="n">
+      <c r="D62">
         <v>0.089</v>
       </c>
-      <c r="E62" t="n">
+      <c r="E62">
         <v>0.1048</v>
       </c>
-      <c r="F62" t="n">
+      <c r="F62">
         <v>0.555</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
+    <row r="63" spans="1:6">
+      <c r="A63" s="2">
         <v>43465</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63">
         <v>0.1105</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63">
         <v>0.1375</v>
       </c>
-      <c r="D63" t="n">
+      <c r="D63">
         <v>0.0872</v>
       </c>
-      <c r="E63" t="n">
+      <c r="E63">
         <v>0.1047</v>
       </c>
-      <c r="F63" t="n">
+      <c r="F63">
         <v>0.5602</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
+    <row r="64" spans="1:6">
+      <c r="A64" s="2">
         <v>43555</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>0.1087</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64">
         <v>0.1404</v>
       </c>
-      <c r="D64" t="n">
+      <c r="D64">
         <v>0.0876</v>
       </c>
-      <c r="E64" t="n">
+      <c r="E64">
         <v>0.1022</v>
       </c>
-      <c r="F64" t="n">
+      <c r="F64">
         <v>0.5611</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
+    <row r="65" spans="1:6">
+      <c r="A65" s="2">
         <v>43646</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>0.1085</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65">
         <v>0.1426</v>
       </c>
-      <c r="D65" t="n">
+      <c r="D65">
         <v>0.08840000000000001</v>
       </c>
-      <c r="E65" t="n">
+      <c r="E65">
         <v>0.1029</v>
       </c>
-      <c r="F65" t="n">
+      <c r="F65">
         <v>0.5576</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
+    <row r="66" spans="1:6">
+      <c r="A66" s="2">
         <v>43738</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>0.1084</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66">
         <v>0.1415</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D66">
         <v>0.08799999999999999</v>
       </c>
-      <c r="E66" t="n">
+      <c r="E66">
         <v>0.1021</v>
       </c>
-      <c r="F66" t="n">
+      <c r="F66">
         <v>0.5600000000000001</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
+    <row r="67" spans="1:6">
+      <c r="A67" s="2">
         <v>43830</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67">
         <v>0.1096</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67">
         <v>0.1382</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D67">
         <v>0.08599999999999999</v>
       </c>
-      <c r="E67" t="n">
+      <c r="E67">
         <v>0.1013</v>
       </c>
-      <c r="F67" t="n">
+      <c r="F67">
         <v>0.5649</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
+    <row r="68" spans="1:6">
+      <c r="A68" s="2">
         <v>43921</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68">
         <v>0.1102</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68">
         <v>0.146</v>
       </c>
-      <c r="D68" t="n">
+      <c r="D68">
         <v>0.0886</v>
       </c>
-      <c r="E68" t="n">
+      <c r="E68">
         <v>0.09569999999999999</v>
       </c>
-      <c r="F68" t="n">
+      <c r="F68">
         <v>0.5595</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
+    <row r="69" spans="1:6">
+      <c r="A69" s="2">
         <v>44012</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69">
         <v>0.1123</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69">
         <v>0.1465</v>
       </c>
-      <c r="D69" t="n">
+      <c r="D69">
         <v>0.0849</v>
       </c>
-      <c r="E69" t="n">
+      <c r="E69">
         <v>0.0935</v>
       </c>
-      <c r="F69" t="n">
+      <c r="F69">
         <v>0.5629</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="2" t="n">
+    <row r="70" spans="1:6">
+      <c r="A70" s="2">
         <v>44104</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70">
         <v>0.1117</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70">
         <v>0.1486</v>
       </c>
-      <c r="D70" t="n">
+      <c r="D70">
         <v>0.0854</v>
       </c>
-      <c r="E70" t="n">
+      <c r="E70">
         <v>0.0906</v>
       </c>
-      <c r="F70" t="n">
+      <c r="F70">
         <v>0.5636</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="2" t="n">
+    <row r="71" spans="1:6">
+      <c r="A71" s="2">
         <v>44196</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71">
         <v>0.1134</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71">
         <v>0.1519</v>
       </c>
-      <c r="D71" t="n">
+      <c r="D71">
         <v>0.0834</v>
       </c>
-      <c r="E71" t="n">
+      <c r="E71">
         <v>0.0888</v>
       </c>
-      <c r="F71" t="n">
+      <c r="F71">
         <v>0.5624</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="2" t="n">
+    <row r="72" spans="1:6">
+      <c r="A72" s="2">
         <v>44286</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72">
         <v>0.1128</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72">
         <v>0.1562</v>
       </c>
-      <c r="D72" t="n">
+      <c r="D72">
         <v>0.08210000000000001</v>
       </c>
-      <c r="E72" t="n">
+      <c r="E72">
         <v>0.0864</v>
       </c>
-      <c r="F72" t="n">
+      <c r="F72">
         <v>0.5625</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="2" t="n">
+    <row r="73" spans="1:6">
+      <c r="A73" s="2">
         <v>44377</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73">
         <v>0.1132</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C73">
         <v>0.1537</v>
       </c>
-      <c r="D73" t="n">
+      <c r="D73">
         <v>0.08160000000000001</v>
       </c>
-      <c r="E73" t="n">
+      <c r="E73">
         <v>0.0856</v>
       </c>
-      <c r="F73" t="n">
+      <c r="F73">
         <v>0.5658</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="2" t="n">
+    <row r="74" spans="1:6">
+      <c r="A74" s="2">
         <v>44469</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74">
         <v>0.1134</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C74">
         <v>0.1554</v>
       </c>
-      <c r="D74" t="n">
+      <c r="D74">
         <v>0.0805</v>
       </c>
-      <c r="E74" t="n">
+      <c r="E74">
         <v>0.0844</v>
       </c>
-      <c r="F74" t="n">
+      <c r="F74">
         <v>0.5664</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="2" t="n">
+    <row r="75" spans="1:6">
+      <c r="A75" s="2">
         <v>44561</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75">
         <v>0.1168</v>
       </c>
-      <c r="C75" t="n">
+      <c r="C75">
         <v>0.1533</v>
       </c>
-      <c r="D75" t="n">
+      <c r="D75">
         <v>0.0774</v>
       </c>
-      <c r="E75" t="n">
+      <c r="E75">
         <v>0.0825</v>
       </c>
-      <c r="F75" t="n">
+      <c r="F75">
         <v>0.5702</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="2" t="n">
+    <row r="76" spans="1:6">
+      <c r="A76" s="2">
         <v>44651</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76">
         <v>0.1148</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C76">
         <v>0.1587</v>
       </c>
-      <c r="D76" t="n">
+      <c r="D76">
         <v>0.0784</v>
       </c>
-      <c r="E76" t="n">
+      <c r="E76">
         <v>0.0805</v>
       </c>
-      <c r="F76" t="n">
+      <c r="F76">
         <v>0.5675</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="2" t="n">
+    <row r="77" spans="1:6">
+      <c r="A77" s="2">
         <v>44742</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77">
         <v>0.1126</v>
       </c>
-      <c r="C77" t="n">
+      <c r="C77">
         <v>0.1561</v>
       </c>
-      <c r="D77" t="n">
+      <c r="D77">
         <v>0.0794</v>
       </c>
-      <c r="E77" t="n">
+      <c r="E77">
         <v>0.0791</v>
       </c>
-      <c r="F77" t="n">
+      <c r="F77">
         <v>0.5728</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="2" t="n">
+    <row r="78" spans="1:6">
+      <c r="A78" s="2">
         <v>44834</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78">
         <v>0.1114</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C78">
         <v>0.153</v>
       </c>
-      <c r="D78" t="n">
+      <c r="D78">
         <v>0.0793</v>
       </c>
-      <c r="E78" t="n">
+      <c r="E78">
         <v>0.07920000000000001</v>
       </c>
-      <c r="F78" t="n">
+      <c r="F78">
         <v>0.5770999999999999</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="2" t="n">
+    <row r="79" spans="1:6">
+      <c r="A79" s="2">
         <v>44926</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79">
         <v>0.1115</v>
       </c>
-      <c r="C79" t="n">
+      <c r="C79">
         <v>0.1476</v>
       </c>
-      <c r="D79" t="n">
+      <c r="D79">
         <v>0.0814</v>
       </c>
-      <c r="E79" t="n">
+      <c r="E79">
         <v>0.07920000000000001</v>
       </c>
-      <c r="F79" t="n">
+      <c r="F79">
         <v>0.5804</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
+    <row r="80" spans="1:6">
+      <c r="A80" s="2">
         <v>45016</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80">
         <v>0.1154</v>
       </c>
-      <c r="C80" t="n">
+      <c r="C80">
         <v>0.1498</v>
       </c>
-      <c r="D80" t="n">
+      <c r="D80">
         <v>0.0789</v>
       </c>
-      <c r="E80" t="n">
+      <c r="E80">
         <v>0.0774</v>
       </c>
-      <c r="F80" t="n">
+      <c r="F80">
         <v>0.5785</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="2" t="n">
+    <row r="81" spans="1:6">
+      <c r="A81" s="2">
         <v>45107</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81">
         <v>0.1135</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C81">
         <v>0.1567</v>
       </c>
-      <c r="D81" t="n">
+      <c r="D81">
         <v>0.07920000000000001</v>
       </c>
-      <c r="E81" t="n">
+      <c r="E81">
         <v>0.07729999999999999</v>
       </c>
-      <c r="F81" t="n">
+      <c r="F81">
         <v>0.5733</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="2" t="n">
+    <row r="82" spans="1:6">
+      <c r="A82" s="2">
         <v>45199</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82">
         <v>0.1142</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82">
         <v>0.1568</v>
       </c>
-      <c r="D82" t="n">
+      <c r="D82">
         <v>0.0767</v>
       </c>
-      <c r="E82" t="n">
+      <c r="E82">
         <v>0.0789</v>
       </c>
-      <c r="F82" t="n">
+      <c r="F82">
         <v>0.5734</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="2" t="n">
+    <row r="83" spans="1:6">
+      <c r="A83" s="2">
         <v>45291</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83">
         <v>0.1163</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C83">
         <v>0.1554</v>
       </c>
-      <c r="D83" t="n">
+      <c r="D83">
         <v>0.0771</v>
       </c>
-      <c r="E83" t="n">
+      <c r="E83">
         <v>0.0793</v>
       </c>
-      <c r="F83" t="n">
+      <c r="F83">
         <v>0.5719</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="2" t="n">
+    <row r="84" spans="1:6">
+      <c r="A84" s="2">
         <v>45382</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84">
         <v>0.1151</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C84">
         <v>0.1581</v>
       </c>
-      <c r="D84" t="n">
+      <c r="D84">
         <v>0.0767</v>
       </c>
-      <c r="E84" t="n">
+      <c r="E84">
         <v>0.07870000000000001</v>
       </c>
-      <c r="F84" t="n">
+      <c r="F84">
         <v>0.5715</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/datasets/bank_asset_percentage.xlsx
+++ b/datasets/bank_asset_percentage.xlsx
@@ -393,7 +393,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F84"/>
+  <dimension ref="A1:F85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2079,6 +2079,26 @@
         <v>0.5715</v>
       </c>
     </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="2">
+        <v>45473</v>
+      </c>
+      <c r="B85">
+        <v>0.1154</v>
+      </c>
+      <c r="C85">
+        <v>0.1589</v>
+      </c>
+      <c r="D85">
+        <v>0.076</v>
+      </c>
+      <c r="E85">
+        <v>0.07779999999999999</v>
+      </c>
+      <c r="F85">
+        <v>0.5719</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/datasets/bank_asset_percentage.xlsx
+++ b/datasets/bank_asset_percentage.xlsx
@@ -393,7 +393,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F85"/>
+  <dimension ref="A1:F86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2099,6 +2099,26 @@
         <v>0.5719</v>
       </c>
     </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="2">
+        <v>45565</v>
+      </c>
+      <c r="B86">
+        <v>0.1145</v>
+      </c>
+      <c r="C86">
+        <v>0.1599</v>
+      </c>
+      <c r="D86">
+        <v>0.07729999999999999</v>
+      </c>
+      <c r="E86">
+        <v>0.07580000000000001</v>
+      </c>
+      <c r="F86">
+        <v>0.5726</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/datasets/bank_asset_percentage.xlsx
+++ b/datasets/bank_asset_percentage.xlsx
@@ -1,40 +1,66 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Bank of America</t>
+  </si>
+  <si>
+    <t>Chase</t>
+  </si>
+  <si>
+    <t>Citibank</t>
+  </si>
+  <si>
+    <t>Wells Fargo</t>
+  </si>
+  <si>
+    <t>Other Banks</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,94 +75,36 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -424,1772 +392,1774 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F87"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Bank of America</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Chase</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Citibank</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Wells Fargo</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Other Banks</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2">
         <v>37894</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>0.09370000000000001</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>0.09569999999999999</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>0.0832</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>0.0337</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>0.6936</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+    <row r="3" spans="1:6">
+      <c r="A3" s="2">
         <v>37986</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>0.0912</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>0.09279999999999999</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>0.0859</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>0.037</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>0.6931</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+    <row r="4" spans="1:6">
+      <c r="A4" s="2">
         <v>38077</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>0.0989</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>0.0929</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>0.0868</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>0.0498</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>0.6716</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+    <row r="5" spans="1:6">
+      <c r="A5" s="2">
         <v>38168</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>0.0979</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>0.0906</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>0.0898</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>0.0505</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>0.6713</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
+    <row r="6" spans="1:6">
+      <c r="A6" s="2">
         <v>38260</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>0.0999</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>0.0893</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>0.08790000000000001</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>0.049</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>0.6739000000000001</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
+    <row r="7" spans="1:6">
+      <c r="A7" s="2">
         <v>38352</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>0.102</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>0.1279</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>0.09180000000000001</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>0.0484</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>0.6299</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
+    <row r="8" spans="1:6">
+      <c r="A8" s="2">
         <v>38442</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>0.1083</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>0.127</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>0.0885</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>0.0475</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>0.6287</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
+    <row r="9" spans="1:6">
+      <c r="A9" s="2">
         <v>38533</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>0.133</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>0.1235</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>0.0895</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>0.0462</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>0.6079</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
+    <row r="10" spans="1:6">
+      <c r="A10" s="2">
         <v>38625</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>0.1313</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>0.1252</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>0.08749999999999999</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>0.0472</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>0.6088</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
+    <row r="11" spans="1:6">
+      <c r="A11" s="2">
         <v>38717</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>0.1323</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>0.124</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>0.0864</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>0.0493</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>0.6081</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
+    <row r="12" spans="1:6">
+      <c r="A12" s="2">
         <v>38807</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>0.1304</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>0.129</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>0.08840000000000001</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>0.0491</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>0.6031</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
+    <row r="13" spans="1:6">
+      <c r="A13" s="2">
         <v>38898</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>0.1328</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>0.131</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>0.089</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>0.0476</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>0.5997</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
+    <row r="14" spans="1:6">
+      <c r="A14" s="2">
         <v>38990</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>0.1334</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>0.1321</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>0.0919</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>0.0451</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>0.5974</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
+    <row r="15" spans="1:6">
+      <c r="A15" s="2">
         <v>39082</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>0.1303</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>0.1284</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>0.111</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>0.0434</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>0.5869</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
+    <row r="16" spans="1:6">
+      <c r="A16" s="2">
         <v>39172</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>0.1306</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>0.1327</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>0.1168</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>0.043</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>0.5769</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
+    <row r="17" spans="1:6">
+      <c r="A17" s="2">
         <v>39263</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>0.1319</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>0.1319</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>0.1193</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>0.0451</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>0.5718</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
+    <row r="18" spans="1:6">
+      <c r="A18" s="2">
         <v>39355</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>0.131</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>0.1263</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>0.1252</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>0.0452</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>0.5722</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
+    <row r="19" spans="1:6">
+      <c r="A19" s="2">
         <v>39447</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>0.1285</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>0.1291</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>0.1225</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>0.0458</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>0.5742</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
+    <row r="20" spans="1:6">
+      <c r="A20" s="2">
         <v>39538</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>0.1287</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>0.1336</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>0.1227</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>0.0462</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>0.5688</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
+    <row r="21" spans="1:6">
+      <c r="A21" s="2">
         <v>39629</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>0.1269</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>0.1318</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>0.1174</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>0.0481</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>0.5758</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
+    <row r="22" spans="1:6">
+      <c r="A22" s="2">
         <v>39721</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>0.1222</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>0.159</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>0.1085</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>0.0463</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>0.5639999999999999</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
+    <row r="23" spans="1:6">
+      <c r="A23" s="2">
         <v>39813</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>0.1288</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>0.1528</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>0.1074</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>0.0472</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>0.5639</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
+    <row r="24" spans="1:6">
+      <c r="A24" s="2">
         <v>39903</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>0.129</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>0.1518</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>0.1028</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>0.0497</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>0.5668</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
+    <row r="25" spans="1:6">
+      <c r="A25" s="2">
         <v>39994</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>0.1318</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>0.1512</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>0.1059</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>0.049</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>0.5620000000000001</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
+    <row r="26" spans="1:6">
+      <c r="A26" s="2">
         <v>40086</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>0.1321</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>0.1511</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>0.1074</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>0.0496</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>0.5598</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
+    <row r="27" spans="1:6">
+      <c r="A27" s="2">
         <v>40178</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>0.1328</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>0.1475</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>0.1053</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>0.0552</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>0.5593</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
+    <row r="28" spans="1:6">
+      <c r="A28" s="2">
         <v>40268</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>0.1326</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>0.1484</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>0.1038</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>0.0945</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>0.5207000000000001</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
+    <row r="29" spans="1:6">
+      <c r="A29" s="2">
         <v>40359</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>0.136</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>0.1404</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>0.1036</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>0.0961</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>0.5239</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
+    <row r="30" spans="1:6">
+      <c r="A30" s="2">
         <v>40451</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>0.1313</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>0.1449</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>0.1066</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>0.0944</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>0.5228</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
+    <row r="31" spans="1:6">
+      <c r="A31" s="2">
         <v>40543</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>0.1314</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>0.1446</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>0.1023</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>0.0977</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>0.5239</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
+    <row r="32" spans="1:6">
+      <c r="A32" s="2">
         <v>40633</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>0.1275</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>0.1514</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>0.102</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>0.096</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>0.5229</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
+    <row r="33" spans="1:6">
+      <c r="A33" s="2">
         <v>40724</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>0.1254</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>0.1545</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>0.1049</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>0.0953</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>0.5199</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
+    <row r="34" spans="1:6">
+      <c r="A34" s="2">
         <v>40816</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>0.1244</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>0.155</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>0.1104</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>0.0969</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>0.5133</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
+    <row r="35" spans="1:6">
+      <c r="A35" s="2">
         <v>40908</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>0.1224</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>0.1527</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>0.1086</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>0.0979</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>0.5183</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
+    <row r="36" spans="1:6">
+      <c r="A36" s="2">
         <v>40999</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>0.1206</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>0.1535</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>0.1093</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>0.0984</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>0.5182</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
+    <row r="37" spans="1:6">
+      <c r="A37" s="2">
         <v>41090</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>0.1193</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>0.1497</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>0.1113</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>0.0974</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>0.5223</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
+    <row r="38" spans="1:6">
+      <c r="A38" s="2">
         <v>41182</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>0.1178</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>0.1504</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>0.111</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>0.09909999999999999</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>0.5217000000000001</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
+    <row r="39" spans="1:6">
+      <c r="A39" s="2">
         <v>41274</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>0.1168</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>0.1503</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>0.1041</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>0.1004</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>0.5283</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
+    <row r="40" spans="1:6">
+      <c r="A40" s="2">
         <v>41364</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>0.1158</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>0.1547</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>0.1037</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
         <v>0.101</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40">
         <v>0.5249</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
+    <row r="41" spans="1:6">
+      <c r="A41" s="2">
         <v>41455</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>0.1136</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>0.1548</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>0.1048</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
         <v>0.1021</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>0.5247000000000001</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
+    <row r="42" spans="1:6">
+      <c r="A42" s="2">
         <v>41547</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>0.1126</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>0.1557</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>0.1052</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
         <v>0.1039</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42">
         <v>0.5225</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
+    <row r="43" spans="1:6">
+      <c r="A43" s="2">
         <v>41639</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>0.1108</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>0.1504</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>0.1041</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
         <v>0.1062</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43">
         <v>0.5284</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
+    <row r="44" spans="1:6">
+      <c r="A44" s="2">
         <v>41729</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>0.111</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>0.1501</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>0.1037</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
         <v>0.1057</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>0.5294</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
+    <row r="45" spans="1:6">
+      <c r="A45" s="2">
         <v>41820</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>0.1086</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>0.1495</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>0.1027</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
         <v>0.1073</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>0.532</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
+    <row r="46" spans="1:6">
+      <c r="A46" s="2">
         <v>41912</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>0.1123</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>0.1479</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>0.1014</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
         <v>0.1092</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46">
         <v>0.5292</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
+    <row r="47" spans="1:6">
+      <c r="A47" s="2">
         <v>42004</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>0.1143</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>0.1507</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>0.0985</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
         <v>0.1113</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47">
         <v>0.5251</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
+    <row r="48" spans="1:6">
+      <c r="A48" s="2">
         <v>42094</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>0.114</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>0.1494</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>0.09520000000000001</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
         <v>0.112</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48">
         <v>0.5295</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
+    <row r="49" spans="1:6">
+      <c r="A49" s="2">
         <v>42185</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>0.1147</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>0.1408</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>0.0954</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
         <v>0.111</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49">
         <v>0.5381</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
+    <row r="50" spans="1:6">
+      <c r="A50" s="2">
         <v>42277</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>0.115</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>0.139</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50">
         <v>0.09520000000000001</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E50">
         <v>0.1123</v>
       </c>
-      <c r="F50" t="n">
+      <c r="F50">
         <v>0.5385</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
+    <row r="51" spans="1:6">
+      <c r="A51" s="2">
         <v>42369</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>0.1153</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>0.1347</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51">
         <v>0.0914</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E51">
         <v>0.1133</v>
       </c>
-      <c r="F51" t="n">
+      <c r="F51">
         <v>0.5453</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
+    <row r="52" spans="1:6">
+      <c r="A52" s="2">
         <v>42460</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>0.1138</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>0.1387</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52">
         <v>0.0924</v>
       </c>
-      <c r="E52" t="n">
+      <c r="E52">
         <v>0.1148</v>
       </c>
-      <c r="F52" t="n">
+      <c r="F52">
         <v>0.5403</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
+    <row r="53" spans="1:6">
+      <c r="A53" s="2">
         <v>42551</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>0.1122</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>0.1388</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53">
         <v>0.0924</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E53">
         <v>0.115</v>
       </c>
-      <c r="F53" t="n">
+      <c r="F53">
         <v>0.5416</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
+    <row r="54" spans="1:6">
+      <c r="A54" s="2">
         <v>42643</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>0.1107</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>0.1413</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54">
         <v>0.0905</v>
       </c>
-      <c r="E54" t="n">
+      <c r="E54">
         <v>0.1161</v>
       </c>
-      <c r="F54" t="n">
+      <c r="F54">
         <v>0.5413</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
+    <row r="55" spans="1:6">
+      <c r="A55" s="2">
         <v>42735</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>0.1119</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55">
         <v>0.139</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D55">
         <v>0.0901</v>
       </c>
-      <c r="E55" t="n">
+      <c r="E55">
         <v>0.1153</v>
       </c>
-      <c r="F55" t="n">
+      <c r="F55">
         <v>0.5438</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
+    <row r="56" spans="1:6">
+      <c r="A56" s="2">
         <v>42825</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>0.1126</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56">
         <v>0.1411</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D56">
         <v>0.09030000000000001</v>
       </c>
-      <c r="E56" t="n">
+      <c r="E56">
         <v>0.1154</v>
       </c>
-      <c r="F56" t="n">
+      <c r="F56">
         <v>0.5406</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
+    <row r="57" spans="1:6">
+      <c r="A57" s="2">
         <v>42916</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>0.1118</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57">
         <v>0.141</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D57">
         <v>0.09180000000000001</v>
       </c>
-      <c r="E57" t="n">
+      <c r="E57">
         <v>0.1135</v>
       </c>
-      <c r="F57" t="n">
+      <c r="F57">
         <v>0.5417999999999999</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
+    <row r="58" spans="1:6">
+      <c r="A58" s="2">
         <v>43008</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>0.1118</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58">
         <v>0.1396</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D58">
         <v>0.0912</v>
       </c>
-      <c r="E58" t="n">
+      <c r="E58">
         <v>0.1127</v>
       </c>
-      <c r="F58" t="n">
+      <c r="F58">
         <v>0.5447</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
+    <row r="59" spans="1:6">
+      <c r="A59" s="2">
         <v>43100</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>0.1125</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59">
         <v>0.1375</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D59">
         <v>0.08890000000000001</v>
       </c>
-      <c r="E59" t="n">
+      <c r="E59">
         <v>0.1122</v>
       </c>
-      <c r="F59" t="n">
+      <c r="F59">
         <v>0.5488</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
+    <row r="60" spans="1:6">
+      <c r="A60" s="2">
         <v>43190</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>0.1126</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60">
         <v>0.1402</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D60">
         <v>0.0897</v>
       </c>
-      <c r="E60" t="n">
+      <c r="E60">
         <v>0.1095</v>
       </c>
-      <c r="F60" t="n">
+      <c r="F60">
         <v>0.548</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
+    <row r="61" spans="1:6">
+      <c r="A61" s="2">
         <v>43281</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>0.1115</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61">
         <v>0.1374</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D61">
         <v>0.0886</v>
       </c>
-      <c r="E61" t="n">
+      <c r="E61">
         <v>0.1062</v>
       </c>
-      <c r="F61" t="n">
+      <c r="F61">
         <v>0.5563</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
+    <row r="62" spans="1:6">
+      <c r="A62" s="2">
         <v>43373</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>0.1131</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62">
         <v>0.1381</v>
       </c>
-      <c r="D62" t="n">
+      <c r="D62">
         <v>0.089</v>
       </c>
-      <c r="E62" t="n">
+      <c r="E62">
         <v>0.1048</v>
       </c>
-      <c r="F62" t="n">
+      <c r="F62">
         <v>0.555</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
+    <row r="63" spans="1:6">
+      <c r="A63" s="2">
         <v>43465</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63">
         <v>0.1105</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63">
         <v>0.1375</v>
       </c>
-      <c r="D63" t="n">
+      <c r="D63">
         <v>0.0872</v>
       </c>
-      <c r="E63" t="n">
+      <c r="E63">
         <v>0.1047</v>
       </c>
-      <c r="F63" t="n">
+      <c r="F63">
         <v>0.5602</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
+    <row r="64" spans="1:6">
+      <c r="A64" s="2">
         <v>43555</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>0.1087</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64">
         <v>0.1404</v>
       </c>
-      <c r="D64" t="n">
+      <c r="D64">
         <v>0.0876</v>
       </c>
-      <c r="E64" t="n">
+      <c r="E64">
         <v>0.1022</v>
       </c>
-      <c r="F64" t="n">
+      <c r="F64">
         <v>0.5611</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
+    <row r="65" spans="1:6">
+      <c r="A65" s="2">
         <v>43646</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>0.1085</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65">
         <v>0.1426</v>
       </c>
-      <c r="D65" t="n">
+      <c r="D65">
         <v>0.08840000000000001</v>
       </c>
-      <c r="E65" t="n">
+      <c r="E65">
         <v>0.1029</v>
       </c>
-      <c r="F65" t="n">
+      <c r="F65">
         <v>0.5576</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
+    <row r="66" spans="1:6">
+      <c r="A66" s="2">
         <v>43738</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>0.1084</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66">
         <v>0.1415</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D66">
         <v>0.08799999999999999</v>
       </c>
-      <c r="E66" t="n">
+      <c r="E66">
         <v>0.1021</v>
       </c>
-      <c r="F66" t="n">
+      <c r="F66">
         <v>0.5600000000000001</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
+    <row r="67" spans="1:6">
+      <c r="A67" s="2">
         <v>43830</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67">
         <v>0.1096</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67">
         <v>0.1382</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D67">
         <v>0.08599999999999999</v>
       </c>
-      <c r="E67" t="n">
+      <c r="E67">
         <v>0.1013</v>
       </c>
-      <c r="F67" t="n">
+      <c r="F67">
         <v>0.5649</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
+    <row r="68" spans="1:6">
+      <c r="A68" s="2">
         <v>43921</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68">
         <v>0.1102</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68">
         <v>0.146</v>
       </c>
-      <c r="D68" t="n">
+      <c r="D68">
         <v>0.0886</v>
       </c>
-      <c r="E68" t="n">
+      <c r="E68">
         <v>0.09569999999999999</v>
       </c>
-      <c r="F68" t="n">
+      <c r="F68">
         <v>0.5595</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
+    <row r="69" spans="1:6">
+      <c r="A69" s="2">
         <v>44012</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69">
         <v>0.1123</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69">
         <v>0.1465</v>
       </c>
-      <c r="D69" t="n">
+      <c r="D69">
         <v>0.0849</v>
       </c>
-      <c r="E69" t="n">
+      <c r="E69">
         <v>0.0935</v>
       </c>
-      <c r="F69" t="n">
+      <c r="F69">
         <v>0.5629</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="2" t="n">
+    <row r="70" spans="1:6">
+      <c r="A70" s="2">
         <v>44104</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70">
         <v>0.1117</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70">
         <v>0.1486</v>
       </c>
-      <c r="D70" t="n">
+      <c r="D70">
         <v>0.0854</v>
       </c>
-      <c r="E70" t="n">
+      <c r="E70">
         <v>0.0906</v>
       </c>
-      <c r="F70" t="n">
+      <c r="F70">
         <v>0.5636</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="2" t="n">
+    <row r="71" spans="1:6">
+      <c r="A71" s="2">
         <v>44196</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71">
         <v>0.1134</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71">
         <v>0.1519</v>
       </c>
-      <c r="D71" t="n">
+      <c r="D71">
         <v>0.0834</v>
       </c>
-      <c r="E71" t="n">
+      <c r="E71">
         <v>0.0888</v>
       </c>
-      <c r="F71" t="n">
+      <c r="F71">
         <v>0.5624</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="2" t="n">
+    <row r="72" spans="1:6">
+      <c r="A72" s="2">
         <v>44286</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72">
         <v>0.1128</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72">
         <v>0.1562</v>
       </c>
-      <c r="D72" t="n">
+      <c r="D72">
         <v>0.08210000000000001</v>
       </c>
-      <c r="E72" t="n">
+      <c r="E72">
         <v>0.0864</v>
       </c>
-      <c r="F72" t="n">
+      <c r="F72">
         <v>0.5625</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="2" t="n">
+    <row r="73" spans="1:6">
+      <c r="A73" s="2">
         <v>44377</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73">
         <v>0.1132</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C73">
         <v>0.1537</v>
       </c>
-      <c r="D73" t="n">
+      <c r="D73">
         <v>0.08160000000000001</v>
       </c>
-      <c r="E73" t="n">
+      <c r="E73">
         <v>0.0856</v>
       </c>
-      <c r="F73" t="n">
+      <c r="F73">
         <v>0.5658</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="2" t="n">
+    <row r="74" spans="1:6">
+      <c r="A74" s="2">
         <v>44469</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74">
         <v>0.1134</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C74">
         <v>0.1554</v>
       </c>
-      <c r="D74" t="n">
+      <c r="D74">
         <v>0.0805</v>
       </c>
-      <c r="E74" t="n">
+      <c r="E74">
         <v>0.0844</v>
       </c>
-      <c r="F74" t="n">
+      <c r="F74">
         <v>0.5664</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="2" t="n">
+    <row r="75" spans="1:6">
+      <c r="A75" s="2">
         <v>44561</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75">
         <v>0.1168</v>
       </c>
-      <c r="C75" t="n">
+      <c r="C75">
         <v>0.1533</v>
       </c>
-      <c r="D75" t="n">
+      <c r="D75">
         <v>0.0774</v>
       </c>
-      <c r="E75" t="n">
+      <c r="E75">
         <v>0.0825</v>
       </c>
-      <c r="F75" t="n">
+      <c r="F75">
         <v>0.5702</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="2" t="n">
+    <row r="76" spans="1:6">
+      <c r="A76" s="2">
         <v>44651</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76">
         <v>0.1148</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C76">
         <v>0.1587</v>
       </c>
-      <c r="D76" t="n">
+      <c r="D76">
         <v>0.0784</v>
       </c>
-      <c r="E76" t="n">
+      <c r="E76">
         <v>0.0805</v>
       </c>
-      <c r="F76" t="n">
+      <c r="F76">
         <v>0.5675</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="2" t="n">
+    <row r="77" spans="1:6">
+      <c r="A77" s="2">
         <v>44742</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77">
         <v>0.1126</v>
       </c>
-      <c r="C77" t="n">
+      <c r="C77">
         <v>0.1561</v>
       </c>
-      <c r="D77" t="n">
+      <c r="D77">
         <v>0.0794</v>
       </c>
-      <c r="E77" t="n">
+      <c r="E77">
         <v>0.0791</v>
       </c>
-      <c r="F77" t="n">
+      <c r="F77">
         <v>0.5728</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="2" t="n">
+    <row r="78" spans="1:6">
+      <c r="A78" s="2">
         <v>44834</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78">
         <v>0.1114</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C78">
         <v>0.153</v>
       </c>
-      <c r="D78" t="n">
+      <c r="D78">
         <v>0.0793</v>
       </c>
-      <c r="E78" t="n">
+      <c r="E78">
         <v>0.07920000000000001</v>
       </c>
-      <c r="F78" t="n">
+      <c r="F78">
         <v>0.5770999999999999</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="2" t="n">
+    <row r="79" spans="1:6">
+      <c r="A79" s="2">
         <v>44926</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79">
         <v>0.1115</v>
       </c>
-      <c r="C79" t="n">
+      <c r="C79">
         <v>0.1476</v>
       </c>
-      <c r="D79" t="n">
+      <c r="D79">
         <v>0.0814</v>
       </c>
-      <c r="E79" t="n">
+      <c r="E79">
         <v>0.07920000000000001</v>
       </c>
-      <c r="F79" t="n">
+      <c r="F79">
         <v>0.5804</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
+    <row r="80" spans="1:6">
+      <c r="A80" s="2">
         <v>45016</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80">
         <v>0.1154</v>
       </c>
-      <c r="C80" t="n">
+      <c r="C80">
         <v>0.1498</v>
       </c>
-      <c r="D80" t="n">
+      <c r="D80">
         <v>0.0789</v>
       </c>
-      <c r="E80" t="n">
+      <c r="E80">
         <v>0.0774</v>
       </c>
-      <c r="F80" t="n">
+      <c r="F80">
         <v>0.5785</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="2" t="n">
+    <row r="81" spans="1:6">
+      <c r="A81" s="2">
         <v>45107</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81">
         <v>0.1135</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C81">
         <v>0.1567</v>
       </c>
-      <c r="D81" t="n">
+      <c r="D81">
         <v>0.07920000000000001</v>
       </c>
-      <c r="E81" t="n">
+      <c r="E81">
         <v>0.07729999999999999</v>
       </c>
-      <c r="F81" t="n">
+      <c r="F81">
         <v>0.5733</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="2" t="n">
+    <row r="82" spans="1:6">
+      <c r="A82" s="2">
         <v>45199</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82">
         <v>0.1142</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82">
         <v>0.1568</v>
       </c>
-      <c r="D82" t="n">
+      <c r="D82">
         <v>0.0767</v>
       </c>
-      <c r="E82" t="n">
+      <c r="E82">
         <v>0.0789</v>
       </c>
-      <c r="F82" t="n">
+      <c r="F82">
         <v>0.5734</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="2" t="n">
+    <row r="83" spans="1:6">
+      <c r="A83" s="2">
         <v>45291</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83">
         <v>0.1163</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C83">
         <v>0.1554</v>
       </c>
-      <c r="D83" t="n">
+      <c r="D83">
         <v>0.0771</v>
       </c>
-      <c r="E83" t="n">
+      <c r="E83">
         <v>0.0793</v>
       </c>
-      <c r="F83" t="n">
+      <c r="F83">
         <v>0.5719</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="2" t="n">
+    <row r="84" spans="1:6">
+      <c r="A84" s="2">
         <v>45382</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84">
         <v>0.1151</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C84">
         <v>0.1581</v>
       </c>
-      <c r="D84" t="n">
+      <c r="D84">
         <v>0.0767</v>
       </c>
-      <c r="E84" t="n">
+      <c r="E84">
         <v>0.07870000000000001</v>
       </c>
-      <c r="F84" t="n">
+      <c r="F84">
         <v>0.5715</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="2" t="n">
+    <row r="85" spans="1:6">
+      <c r="A85" s="2">
         <v>45473</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85">
         <v>0.1154</v>
       </c>
-      <c r="C85" t="n">
+      <c r="C85">
         <v>0.1589</v>
       </c>
-      <c r="D85" t="n">
+      <c r="D85">
         <v>0.076</v>
       </c>
-      <c r="E85" t="n">
+      <c r="E85">
         <v>0.07779999999999999</v>
       </c>
-      <c r="F85" t="n">
+      <c r="F85">
         <v>0.5719</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="2" t="n">
+    <row r="86" spans="1:6">
+      <c r="A86" s="2">
         <v>45565</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86">
         <v>0.1145</v>
       </c>
-      <c r="C86" t="n">
+      <c r="C86">
         <v>0.1599</v>
       </c>
-      <c r="D86" t="n">
+      <c r="D86">
         <v>0.07729999999999999</v>
       </c>
-      <c r="E86" t="n">
+      <c r="E86">
         <v>0.07580000000000001</v>
       </c>
-      <c r="F86" t="n">
+      <c r="F86">
         <v>0.5726</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="2" t="n">
+    <row r="87" spans="1:6">
+      <c r="A87" s="2">
         <v>45657</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87">
         <v>0.1161</v>
       </c>
-      <c r="C87" t="n">
+      <c r="C87">
         <v>0.1552</v>
       </c>
-      <c r="D87" t="n">
+      <c r="D87">
         <v>0.0761</v>
       </c>
-      <c r="E87" t="n">
+      <c r="E87">
         <v>0.0765</v>
       </c>
-      <c r="F87" t="n">
+      <c r="F87">
         <v>0.5760999999999999</v>
       </c>
     </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B88">
+        <v>0.115</v>
+      </c>
+      <c r="C88">
+        <v>0.1602</v>
+      </c>
+      <c r="D88">
+        <v>0.0774</v>
+      </c>
+      <c r="E88">
+        <v>0.0752</v>
+      </c>
+      <c r="F88">
+        <v>0.5721000000000001</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>